--- a/data/hotels_by_city/Houston/Houston_shard_657.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_657.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107954-Reviews-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-TownePlace-Suites-Houston-Energy-CorridorKaty-Freeway.h564786.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1197 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r588637278-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107954</t>
+  </si>
+  <si>
+    <t>588637278</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Good place for an extended stay</t>
+  </si>
+  <si>
+    <t>I was in Houston for a two week business trip. Towneplace suites have rooms with a proper fridge, microwave and cooker; so it is much better for an extended stay.The first room I was shown was on the ground floor by the building AC units, so I asked for a change and was given one on the 2nd floor. Much quieter.It is not a luxury hotel, expect the breakfast dishes to be disposable.. But the rooms are nice enough and clean.Recommended for an extended stay where you need more facilities than a normal hotel.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r573621596-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573621596</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Good location, poor facility and front desk</t>
+  </si>
+  <si>
+    <t>Stayed here one night after hurricane Harvey. As a Platinum elite with a paid stay, first provided a room does not seem cleaned. Switched room, ok but very slow to bring baby crib. No trash can in the room, talked to front desk a few times but still no when we checked out. During check-in, front desk did not provide Platinum points/gift selections and did not add points to my account after the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Angie S, General Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded April 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here one night after hurricane Harvey. As a Platinum elite with a paid stay, first provided a room does not seem cleaned. Switched room, ok but very slow to bring baby crib. No trash can in the room, talked to front desk a few times but still no when we checked out. During check-in, front desk did not provide Platinum points/gift selections and did not add points to my account after the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r569788264-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569788264</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>take the good with the bad</t>
+  </si>
+  <si>
+    <t>This was our second TownePlace Suites stay; the first one was at a different location and we were thrilled with that stay! So we chose this location based on the previous experience. Be aware that NOT all TownPlace Suites are kept up in the same way. I could not fault the service; everyone who worked there was attentive and friendly. But our room, 314, which was a 2 bedroom suite, smelled like old socks, the living room A/C did not work, and the bedroom A/C was noisy and rattled. The toilet paper holder was falling out of the wall and there was rust and hair in the bathtub. The kitchen floor felt greasy. We were only there one night, and if it had been a longer stay, we would have complained and probably had these issues fixed. The good news is the fitness room was clean and had functioning equipment, which I appreciated. The breakfast was decent but the "coffee" was undrinkable. I would not have recognized it as "coffee" if the pot didn't say so. The in-room coffee was almost, but not quite, as terrible. I found the beds to be clean and reasonably comfortable, but again, I could not sleep with the A/C unit being so noisy, and furthermore, the doors slam so hard in this hotel, so starting at 5 a.m. you could hear every door in the hallway slamming as people were waking up and leaving....This was our second TownePlace Suites stay; the first one was at a different location and we were thrilled with that stay! So we chose this location based on the previous experience. Be aware that NOT all TownPlace Suites are kept up in the same way. I could not fault the service; everyone who worked there was attentive and friendly. But our room, 314, which was a 2 bedroom suite, smelled like old socks, the living room A/C did not work, and the bedroom A/C was noisy and rattled. The toilet paper holder was falling out of the wall and there was rust and hair in the bathtub. The kitchen floor felt greasy. We were only there one night, and if it had been a longer stay, we would have complained and probably had these issues fixed. The good news is the fitness room was clean and had functioning equipment, which I appreciated. The breakfast was decent but the "coffee" was undrinkable. I would not have recognized it as "coffee" if the pot didn't say so. The in-room coffee was almost, but not quite, as terrible. I found the beds to be clean and reasonably comfortable, but again, I could not sleep with the A/C unit being so noisy, and furthermore, the doors slam so hard in this hotel, so starting at 5 a.m. you could hear every door in the hallway slamming as people were waking up and leaving. So, it was a very uneven experience overall. I will think twice before assuming that all TownePlace Suites are as nice as the first one we visited.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Angie S, General Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded March 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2018</t>
+  </si>
+  <si>
+    <t>This was our second TownePlace Suites stay; the first one was at a different location and we were thrilled with that stay! So we chose this location based on the previous experience. Be aware that NOT all TownPlace Suites are kept up in the same way. I could not fault the service; everyone who worked there was attentive and friendly. But our room, 314, which was a 2 bedroom suite, smelled like old socks, the living room A/C did not work, and the bedroom A/C was noisy and rattled. The toilet paper holder was falling out of the wall and there was rust and hair in the bathtub. The kitchen floor felt greasy. We were only there one night, and if it had been a longer stay, we would have complained and probably had these issues fixed. The good news is the fitness room was clean and had functioning equipment, which I appreciated. The breakfast was decent but the "coffee" was undrinkable. I would not have recognized it as "coffee" if the pot didn't say so. The in-room coffee was almost, but not quite, as terrible. I found the beds to be clean and reasonably comfortable, but again, I could not sleep with the A/C unit being so noisy, and furthermore, the doors slam so hard in this hotel, so starting at 5 a.m. you could hear every door in the hallway slamming as people were waking up and leaving....This was our second TownePlace Suites stay; the first one was at a different location and we were thrilled with that stay! So we chose this location based on the previous experience. Be aware that NOT all TownPlace Suites are kept up in the same way. I could not fault the service; everyone who worked there was attentive and friendly. But our room, 314, which was a 2 bedroom suite, smelled like old socks, the living room A/C did not work, and the bedroom A/C was noisy and rattled. The toilet paper holder was falling out of the wall and there was rust and hair in the bathtub. The kitchen floor felt greasy. We were only there one night, and if it had been a longer stay, we would have complained and probably had these issues fixed. The good news is the fitness room was clean and had functioning equipment, which I appreciated. The breakfast was decent but the "coffee" was undrinkable. I would not have recognized it as "coffee" if the pot didn't say so. The in-room coffee was almost, but not quite, as terrible. I found the beds to be clean and reasonably comfortable, but again, I could not sleep with the A/C unit being so noisy, and furthermore, the doors slam so hard in this hotel, so starting at 5 a.m. you could hear every door in the hallway slamming as people were waking up and leaving. So, it was a very uneven experience overall. I will think twice before assuming that all TownePlace Suites are as nice as the first one we visited.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r543840218-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543840218</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Mildew Smell &amp; Unclean Room</t>
+  </si>
+  <si>
+    <t>Upon arriving at the hotel, I was a bit  put off by the look of the outside - a bit run down with a van that was sitting on a car jack with one tire missing. Nonetheless, I still wanted to give this hotel the benefit of the doubt. Staff were very pleasant but the hotel itself was not. After checking in, I noticed that the carpet was dated with a musty, mildew smell through the halls. The same smell was in my room. I even purchased Lysol and a candle to rid the smell. After returning from a day at work, I went to put away a few items in the bathroom and found a ton of curly, black hair in a drawer. Mind you I have an extremely short hair cut with straight brown hair. I pulled back the bed cover (because now I am concerned) and found nothing. However, I found some random, large crumbs once I pulled back the sheets. I immediately booked and stayed the night at Hyatt House (amazing, extended stay hotel) and checked out of TownePlace the next morning. I will say that the receptionist and manager thoroughly apologized, offered a room change, and the option to take Marriot points instead of a refund. When I declined they gladly refunded my nights stay and did not give me any hassle even though I my reservation was for an entire week MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Upon arriving at the hotel, I was a bit  put off by the look of the outside - a bit run down with a van that was sitting on a car jack with one tire missing. Nonetheless, I still wanted to give this hotel the benefit of the doubt. Staff were very pleasant but the hotel itself was not. After checking in, I noticed that the carpet was dated with a musty, mildew smell through the halls. The same smell was in my room. I even purchased Lysol and a candle to rid the smell. After returning from a day at work, I went to put away a few items in the bathroom and found a ton of curly, black hair in a drawer. Mind you I have an extremely short hair cut with straight brown hair. I pulled back the bed cover (because now I am concerned) and found nothing. However, I found some random, large crumbs once I pulled back the sheets. I immediately booked and stayed the night at Hyatt House (amazing, extended stay hotel) and checked out of TownePlace the next morning. I will say that the receptionist and manager thoroughly apologized, offered a room change, and the option to take Marriot points instead of a refund. When I declined they gladly refunded my nights stay and did not give me any hassle even though I my reservation was for an entire week More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r504308034-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504308034</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>When we (family of 5) arrived at first I was thrown off by how the suites looked on the outside. When we went in we were surprised. The inside was all redone like new! We were greeted by Cassandra the attend in the front. She was very nice and always had a smile. The room was nice. We were located on the first floor and it was perfect not loud at all. The breakfast area was kind of small but the food was good. The pool was broken but we were allowed in the pool in the sister location in the front. The staff was extremely nice and accommodating! We had a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>When we (family of 5) arrived at first I was thrown off by how the suites looked on the outside. When we went in we were surprised. The inside was all redone like new! We were greeted by Cassandra the attend in the front. She was very nice and always had a smile. The room was nice. We were located on the first floor and it was perfect not loud at all. The breakfast area was kind of small but the food was good. The pool was broken but we were allowed in the pool in the sister location in the front. The staff was extremely nice and accommodating! We had a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r503622039-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503622039</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>The staff was outstanding! Our stay was incredible!</t>
+  </si>
+  <si>
+    <t>If you are looking for a "Like Home" environment while you are on the road with kids, THIS is the place to stay. The Staff was absolutely warm, inviting, caring and awesome!Hot, consistent breakfast experience each morning My room was always clean!My service was consistent no matter who worked the front or housekeeping!Front DeskHeatherCentericaEricMaintenanceRockyRockelleCyntrelle- HousekeepingTarell- Management Thanks, Towneplace! I will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>If you are looking for a "Like Home" environment while you are on the road with kids, THIS is the place to stay. The Staff was absolutely warm, inviting, caring and awesome!Hot, consistent breakfast experience each morning My room was always clean!My service was consistent no matter who worked the front or housekeeping!Front DeskHeatherCentericaEricMaintenanceRockyRockelleCyntrelle- HousekeepingTarell- Management Thanks, Towneplace! I will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r478710018-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478710018</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Quaintness in the Energy Corridor</t>
+  </si>
+  <si>
+    <t>There's a lot to be said about the energy corridor of Houston...with regard to it's location to some of Houston's finest attractions and access to freeways and highways to get you there. It's sweet when you can add into the equation, a quaint hotel, located on the beaten path- but just far enough back, to provide the privacy that you need. I enjoyed my stay at TownPlace. This hotel offers convenience to Katy Freeway (I-10) The Beltway, Highway 6 and 610. Either direction will lead you to any of the city treasures, such as parks, museums, entertainment and shopping. Memorial City Mall, just a couple of miles away, where The Square just opened... to Town and Country shopping, as well as Top Golf and Katy mills Malls just a few miles away. The hotel features a pool, work out area, hot breakfast served daily, business center, laundry area, in room refrig w/ice maker, stove top, oven, microwave, dishes and eating utensils. Bed Sleeps very comfortable, no noise, private and safe feel...well lit with a marketplace located on the first floor. I thoroughly enjoyed my stay. Professional and friendly staff all day every dayMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>There's a lot to be said about the energy corridor of Houston...with regard to it's location to some of Houston's finest attractions and access to freeways and highways to get you there. It's sweet when you can add into the equation, a quaint hotel, located on the beaten path- but just far enough back, to provide the privacy that you need. I enjoyed my stay at TownPlace. This hotel offers convenience to Katy Freeway (I-10) The Beltway, Highway 6 and 610. Either direction will lead you to any of the city treasures, such as parks, museums, entertainment and shopping. Memorial City Mall, just a couple of miles away, where The Square just opened... to Town and Country shopping, as well as Top Golf and Katy mills Malls just a few miles away. The hotel features a pool, work out area, hot breakfast served daily, business center, laundry area, in room refrig w/ice maker, stove top, oven, microwave, dishes and eating utensils. Bed Sleeps very comfortable, no noise, private and safe feel...well lit with a marketplace located on the first floor. I thoroughly enjoyed my stay. Professional and friendly staff all day every dayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r465331164-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465331164</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>Terrible Stay</t>
+  </si>
+  <si>
+    <t>Booked a non-smoking room.  First room they put us in had a strong smoke odor.  Still, it was late and we were tired so was going to stay in room.  After being in room about 30 minutes realized heater didn't work and smoke alarms in living room and bedroom was chirping.  Took smoke alarm down from living room ceiling and took out battery but it continued to chirp even after waiting 5 minutes to see if it would quit.  Was transferred to a second room which was not much better.  The light in the toilet area was out and the vent fan in the bathroom was extremely noisy and vibrated badly.  The heaters in the living room and bedrooms did not have an automatic setting so they ran all the time.  In addition, one of the lights over the bathroom sink was also out.  This was a very old run-down building!  I would never stay here again.  The girl at the front desk late at night was very friendly and helpful but there is only so much she can do when the maintenance is so bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Booked a non-smoking room.  First room they put us in had a strong smoke odor.  Still, it was late and we were tired so was going to stay in room.  After being in room about 30 minutes realized heater didn't work and smoke alarms in living room and bedroom was chirping.  Took smoke alarm down from living room ceiling and took out battery but it continued to chirp even after waiting 5 minutes to see if it would quit.  Was transferred to a second room which was not much better.  The light in the toilet area was out and the vent fan in the bathroom was extremely noisy and vibrated badly.  The heaters in the living room and bedrooms did not have an automatic setting so they ran all the time.  In addition, one of the lights over the bathroom sink was also out.  This was a very old run-down building!  I would never stay here again.  The girl at the front desk late at night was very friendly and helpful but there is only so much she can do when the maintenance is so bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r464697275-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464697275</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is a little dated.. real nice otherwise </t>
+  </si>
+  <si>
+    <t>We arrived late on Thursday night (3/2) for a two night stay. There was a situation at check in with the person before me, but Meg handled the situation with professionalism and should be commended. She was the sweetest &amp; provided excellent customer service.The service we received after that was great. The hotel is a little dated, but nice nonetheless.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>We arrived late on Thursday night (3/2) for a two night stay. There was a situation at check in with the person before me, but Meg handled the situation with professionalism and should be commended. She was the sweetest &amp; provided excellent customer service.The service we received after that was great. The hotel is a little dated, but nice nonetheless.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r453918097-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453918097</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay - Staff Made Me Feel Like a Valued Guest</t>
+  </si>
+  <si>
+    <t>Recently finished a two-month stay there while completing a job in Houston.  Extremely happy with my stay - room was clean, spacious with lots of amenities.  In addition every staff member, from front desk to housekeeping to the breakfast staff, could not have been more friendly and helpful.  They truly went out of their way to make us feel like very valued guests.  Breakfast area was clean with many choices.  Would not hesitate to stay there again if ever in the area.  I very highly recommend this hotel!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Recently finished a two-month stay there while completing a job in Houston.  Extremely happy with my stay - room was clean, spacious with lots of amenities.  In addition every staff member, from front desk to housekeeping to the breakfast staff, could not have been more friendly and helpful.  They truly went out of their way to make us feel like very valued guests.  Breakfast area was clean with many choices.  Would not hesitate to stay there again if ever in the area.  I very highly recommend this hotel!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r414780875-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414780875</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Twenty miles from Airport</t>
+  </si>
+  <si>
+    <t>Flew in this Labor Day weekend for the season opener, A&amp;M v UCLA in College Station. Since our flight came in late, we decided to stay in Houston for the night. Breakfast is offered in the morning which was standard: eggs, sausage, bagels, yogurt, waffles, etc. We ate before heading out to the Space Center and the Museum of Fine Arts. This Towneplace was comfortable and the staff friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Flew in this Labor Day weekend for the season opener, A&amp;M v UCLA in College Station. Since our flight came in late, we decided to stay in Houston for the night. Breakfast is offered in the morning which was standard: eggs, sausage, bagels, yogurt, waffles, etc. We ate before heading out to the Space Center and the Museum of Fine Arts. This Towneplace was comfortable and the staff friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r406669863-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>406669863</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel but cleaning staff should be more careful.</t>
+  </si>
+  <si>
+    <t>My Husband and I stayed at this hotel in May. As usual with Marriott we received a great welcome and our room was lovely and clean. The staff on reception were very friendly as were the staff at breakfast. The only problem that we experienced during our stay was that on our 2nd to last day we went out early in the morning and when we returned in the evening we found that after the staff had cleaned our room, the door to the room was not shut properly and was slightly ajar, thankfully it appears that none of our belongings had been stolen. I reported this to the staff on reception and they said they will ask the cleaning staff to be more careful. My Husband contacted the hotel manager several times and after a couple of weeks he received an email with a simple apology, he has also contacted Marriott headquarters a few times too but as yet they have not responded.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2016</t>
+  </si>
+  <si>
+    <t>My Husband and I stayed at this hotel in May. As usual with Marriott we received a great welcome and our room was lovely and clean. The staff on reception were very friendly as were the staff at breakfast. The only problem that we experienced during our stay was that on our 2nd to last day we went out early in the morning and when we returned in the evening we found that after the staff had cleaned our room, the door to the room was not shut properly and was slightly ajar, thankfully it appears that none of our belongings had been stolen. I reported this to the staff on reception and they said they will ask the cleaning staff to be more careful. My Husband contacted the hotel manager several times and after a couple of weeks he received an email with a simple apology, he has also contacted Marriott headquarters a few times too but as yet they have not responded.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r377025015-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377025015</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Great property, very peaceful.</t>
+  </si>
+  <si>
+    <t>This property is hiding behind another property, very nice, clean, cordial staff, If you looking to wind down and have some peaceful rest this is the place to do it. Room service wasn't the greatest, maybe it's because it's geared to long stays, but they did come in everyday and clean the common area, made the bed, hang new towels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r358130244-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358130244</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Internet problem</t>
+  </si>
+  <si>
+    <t>Ultimately, this was a good stay--the room was in good shape and the major things you look for in a comfortable stay at a good price were there. The check-in person was a bit slow and 'methodical' and did little to recognize my Marriott elite status, but was friendly. Like many of these places, the breakfast area is way too small. They also ran out of breakfast meat about 45 minutes before breakfast ending time, and waited a long time to add just a bit more--overall it seemed the breakfast staff was ready to close breakfast early--the oatmeal also ran out and was not replenished. The one major problem I had for the stay was that Netflix would not connect through their wi-fi.  It told me there was a firewall.  I was not in the room long enough to makes calls and try to resolve it, but it was an irritation.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Ultimately, this was a good stay--the room was in good shape and the major things you look for in a comfortable stay at a good price were there. The check-in person was a bit slow and 'methodical' and did little to recognize my Marriott elite status, but was friendly. Like many of these places, the breakfast area is way too small. They also ran out of breakfast meat about 45 minutes before breakfast ending time, and waited a long time to add just a bit more--overall it seemed the breakfast staff was ready to close breakfast early--the oatmeal also ran out and was not replenished. The one major problem I had for the stay was that Netflix would not connect through their wi-fi.  It told me there was a firewall.  I was not in the room long enough to makes calls and try to resolve it, but it was an irritation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r355102422-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355102422</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>very friendly service, and attentive at all times. the room was clean and well appointed. the breakfast was very good. they have facilities, such as pool and excercise room. overall a good choice for a short period.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r347333912-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347333912</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible staff. </t>
+  </si>
+  <si>
+    <t>Stayed here for three nights during a business trip. First night was awakened to the refrigerator fan making a terrible noise.  I tried adjusting it and finally at 2am called the front desk.  Said they would have someone look in the morning. I checked in at the desk at 6am to make sure they would.  I packed my things in case I needed to be moved.  When I returned in the afternoon I checked the desk and they hadn't gotten to it yet.  Tried to go to my room and housekeeping was just getting to my room.  After an hour or so I went back to the room and the refrigerator was still making noises.  I called again and was told they would check on moving me.  An hour later they came to my room with a new key for a room down the hall. When I mentioned it, they said they were in the process of replacing that refrig.  Why would you book that room, knowing it's a problem??  Staff seemed irritated when our small work group was in the breakfast area in the morning. We met outside the next day and we're told we had to move as we were disturbing the other guests.  Wait, we are guests and we were waiting for our group to arrive so we could leave for the day. 12 total.   Wouldn't tday again MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded February 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights during a business trip. First night was awakened to the refrigerator fan making a terrible noise.  I tried adjusting it and finally at 2am called the front desk.  Said they would have someone look in the morning. I checked in at the desk at 6am to make sure they would.  I packed my things in case I needed to be moved.  When I returned in the afternoon I checked the desk and they hadn't gotten to it yet.  Tried to go to my room and housekeeping was just getting to my room.  After an hour or so I went back to the room and the refrigerator was still making noises.  I called again and was told they would check on moving me.  An hour later they came to my room with a new key for a room down the hall. When I mentioned it, they said they were in the process of replacing that refrig.  Why would you book that room, knowing it's a problem??  Staff seemed irritated when our small work group was in the breakfast area in the morning. We met outside the next day and we're told we had to move as we were disturbing the other guests.  Wait, we are guests and we were waiting for our group to arrive so we could leave for the day. 12 total.   Wouldn't tday again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r339940370-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339940370</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for two nights, while in HoustonMy room was laid out in a small apartment type with a stove, refrigerator , dishwasher and plates and silverware.All in all very clean and bed was comfortable and relaxed atmosphere , good shower .Pricing very competitive to other properties in the area.Very small kitchen and breakfast serving area was my only concern when down stairs to have complimentary breakfast .Very close seating and serving area is cramped when multiple persons in the breakfast area.Really for longer term stay as like a small one bedroom apartment.Strategically located to highway interstate 10.It s a Marriott property but operated by a third party which is a little bit different feel than the true Marriott Branded Property.Recommend for longer stay in Houston with a full kitchen in your room.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for two nights, while in HoustonMy room was laid out in a small apartment type with a stove, refrigerator , dishwasher and plates and silverware.All in all very clean and bed was comfortable and relaxed atmosphere , good shower .Pricing very competitive to other properties in the area.Very small kitchen and breakfast serving area was my only concern when down stairs to have complimentary breakfast .Very close seating and serving area is cramped when multiple persons in the breakfast area.Really for longer term stay as like a small one bedroom apartment.Strategically located to highway interstate 10.It s a Marriott property but operated by a third party which is a little bit different feel than the true Marriott Branded Property.Recommend for longer stay in Houston with a full kitchen in your room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r335429089-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335429089</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>Not up to expectations</t>
+  </si>
+  <si>
+    <t>Im shocked at the amount of great reviews, as I have been to quite a few Marriots over the last few years and have grew accustomed to a certain standard. The rooms aren't terrible by any means, but it is not what I expected. The suite is small and the condition of the room is st at ting to look warn. The pullout mattress needs replacement. The room service upon arrival wasnt great as the sheets weren't  folded so I wasnt sure if they were clean or not and the bathroom had strands of hair throughout.The breakfast experience wasnt great either as the space was not large enough to accommodate the amount of guest that were present, and the meal didnt provid a lot of variety. We couldnt even enjoy the cable as the signal wasnt clear. The price was cheap so for the value it was  good, but for Marriott it missed the mark.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded December 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2015</t>
+  </si>
+  <si>
+    <t>Im shocked at the amount of great reviews, as I have been to quite a few Marriots over the last few years and have grew accustomed to a certain standard. The rooms aren't terrible by any means, but it is not what I expected. The suite is small and the condition of the room is st at ting to look warn. The pullout mattress needs replacement. The room service upon arrival wasnt great as the sheets weren't  folded so I wasnt sure if they were clean or not and the bathroom had strands of hair throughout.The breakfast experience wasnt great either as the space was not large enough to accommodate the amount of guest that were present, and the meal didnt provid a lot of variety. We couldnt even enjoy the cable as the signal wasnt clear. The price was cheap so for the value it was  good, but for Marriott it missed the mark.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r292304033-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292304033</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Nice Stay / SUPERB Staff</t>
+  </si>
+  <si>
+    <t>My teenage son and I were in town for a one-night stay.  He was busy at a 2-day camp, so I needed somewhere to sit and get some work done.  We used our Marriott Rewards points to stay at what turned out to be a wonderful experience.  The 1 bedroom suite was like a small apartment - very big for the two of us.  I really liked the separate bedroom. Both the bedroom and the living room had nice flat screen TV's.  The small kitchenette was convenient, the bed and pillows were great, and I really appreciated the large desk area for me to get some work done.  Very roomy and well lit.  The breakfast was the usual (waffle maker, some fruit, pastries, cereal, oatmeal, etc.), but it also had some ham and fried eggs.  They weren't the best, but I'm not a big breakfast eater.
+The staff are what made this stay such a great one.  They were superb.  Though I did not get any names, each and every one of them were very friendly, helpful, welcoming, and seemed to enjoy what they were doing.  This was especially evident when I had breakfast the next morning.  When I walked in the office, no less than 4 employees smiled, told me good morning, and seemed genuine in doing so.  There was also a very nice lady who was restocking and cleaning the breakfast area - very sweet and helpful (and...My teenage son and I were in town for a one-night stay.  He was busy at a 2-day camp, so I needed somewhere to sit and get some work done.  We used our Marriott Rewards points to stay at what turned out to be a wonderful experience.  The 1 bedroom suite was like a small apartment - very big for the two of us.  I really liked the separate bedroom. Both the bedroom and the living room had nice flat screen TV's.  The small kitchenette was convenient, the bed and pillows were great, and I really appreciated the large desk area for me to get some work done.  Very roomy and well lit.  The breakfast was the usual (waffle maker, some fruit, pastries, cereal, oatmeal, etc.), but it also had some ham and fried eggs.  They weren't the best, but I'm not a big breakfast eater.The staff are what made this stay such a great one.  They were superb.  Though I did not get any names, each and every one of them were very friendly, helpful, welcoming, and seemed to enjoy what they were doing.  This was especially evident when I had breakfast the next morning.  When I walked in the office, no less than 4 employees smiled, told me good morning, and seemed genuine in doing so.  There was also a very nice lady who was restocking and cleaning the breakfast area - very sweet and helpful (and patient with the few kids that were there).  Thanks to TownePlace Suites I-10 West/Energy Corridor for a nice stay.  If I'm in the area again, I will definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>My teenage son and I were in town for a one-night stay.  He was busy at a 2-day camp, so I needed somewhere to sit and get some work done.  We used our Marriott Rewards points to stay at what turned out to be a wonderful experience.  The 1 bedroom suite was like a small apartment - very big for the two of us.  I really liked the separate bedroom. Both the bedroom and the living room had nice flat screen TV's.  The small kitchenette was convenient, the bed and pillows were great, and I really appreciated the large desk area for me to get some work done.  Very roomy and well lit.  The breakfast was the usual (waffle maker, some fruit, pastries, cereal, oatmeal, etc.), but it also had some ham and fried eggs.  They weren't the best, but I'm not a big breakfast eater.
+The staff are what made this stay such a great one.  They were superb.  Though I did not get any names, each and every one of them were very friendly, helpful, welcoming, and seemed to enjoy what they were doing.  This was especially evident when I had breakfast the next morning.  When I walked in the office, no less than 4 employees smiled, told me good morning, and seemed genuine in doing so.  There was also a very nice lady who was restocking and cleaning the breakfast area - very sweet and helpful (and...My teenage son and I were in town for a one-night stay.  He was busy at a 2-day camp, so I needed somewhere to sit and get some work done.  We used our Marriott Rewards points to stay at what turned out to be a wonderful experience.  The 1 bedroom suite was like a small apartment - very big for the two of us.  I really liked the separate bedroom. Both the bedroom and the living room had nice flat screen TV's.  The small kitchenette was convenient, the bed and pillows were great, and I really appreciated the large desk area for me to get some work done.  Very roomy and well lit.  The breakfast was the usual (waffle maker, some fruit, pastries, cereal, oatmeal, etc.), but it also had some ham and fried eggs.  They weren't the best, but I'm not a big breakfast eater.The staff are what made this stay such a great one.  They were superb.  Though I did not get any names, each and every one of them were very friendly, helpful, welcoming, and seemed to enjoy what they were doing.  This was especially evident when I had breakfast the next morning.  When I walked in the office, no less than 4 employees smiled, told me good morning, and seemed genuine in doing so.  There was also a very nice lady who was restocking and cleaning the breakfast area - very sweet and helpful (and patient with the few kids that were there).  Thanks to TownePlace Suites I-10 West/Energy Corridor for a nice stay.  If I'm in the area again, I will definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r291049055-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291049055</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>We had 2 rooms for 2 nights and we found the hotel to be outstanding; very clean quite and comfortable. The staff was courteous and patient. The room and bed exceeded my expectations. The rooms were huge with plenty of outlets and a full kitchen. The breakfast was a little mundane however, it was hot and delicious.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r281634458-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281634458</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>1st Class!!!</t>
+  </si>
+  <si>
+    <t>Another review that couldn't wait until I got home. While in town (Houston) on business we (when I say we I mean husband  &amp; I) stayed at TownePlace Suites which is a Marriott branch. Since it was our first time staying at TownePlace Suites we weren't sure what to expect but Marriott didn't disappoint. The front desk associate "Will" was friendly and fast checking us in our room. When we walked in our suite I was shocked at how spacious and modern the room was. We had a kitchen w/a OVEN.....YES A OVEN people. And Im not talking about a stove top (even though it had 4 spots on top). Amazing!!Swivel flat screen tv and a nice work station w/tons of outlets.  I mean they had so many outlets I think it was one on the front door. LolWe originally planned on staying one night but w/all those outlets we had to stay another night. The ac was good and cold. Breakfast was a step above continental not just bagels and juice but cold and hot cereal as well as waffles and yogurt. I'm definitely a happy camper with TownePlace Suites and can't wait to come back. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Another review that couldn't wait until I got home. While in town (Houston) on business we (when I say we I mean husband  &amp; I) stayed at TownePlace Suites which is a Marriott branch. Since it was our first time staying at TownePlace Suites we weren't sure what to expect but Marriott didn't disappoint. The front desk associate "Will" was friendly and fast checking us in our room. When we walked in our suite I was shocked at how spacious and modern the room was. We had a kitchen w/a OVEN.....YES A OVEN people. And Im not talking about a stove top (even though it had 4 spots on top). Amazing!!Swivel flat screen tv and a nice work station w/tons of outlets.  I mean they had so many outlets I think it was one on the front door. LolWe originally planned on staying one night but w/all those outlets we had to stay another night. The ac was good and cold. Breakfast was a step above continental not just bagels and juice but cold and hot cereal as well as waffles and yogurt. I'm definitely a happy camper with TownePlace Suites and can't wait to come back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r271225757-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271225757</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>Home away from home.</t>
+  </si>
+  <si>
+    <t>I stayed at TownePlace Suites I10/Energy corridor for a month, beginning March 12, 2015.  I had major surgery at a Houston hospital and chose to rehab here.  A few days before surgery, I visited this hotel and spoke with the General Manager, Leo.  He was very friendly and  accommodating.  I had reserved a studio suite for the month, but when he understood the surgery I was having and my special needs, he upgraded my room to a one bedroom suite and assigned me a room he thought would be perfect for me.  (He knew I would be on my own most of the time, am older, and would be using a walker).  He made sure to add a "club chair" to the room to make it easier for me to get up and down.  As it turned out, the whole experience was perfect.  All the desk staff were so friendly and treated me like family, offering to help with anything they could.  The room faced a park/hiking trails, which helped me mentally.  The housekeeping staff were very good and respected my request that they come to my room after noon.  They made a note so that any new staff would know.  I had a couple small issues with the room and the maintenance staff took care of it immediately.  When an outside company was involved in rectifying the issue, I was called by front desk staff to approve the time...I stayed at TownePlace Suites I10/Energy corridor for a month, beginning March 12, 2015.  I had major surgery at a Houston hospital and chose to rehab here.  A few days before surgery, I visited this hotel and spoke with the General Manager, Leo.  He was very friendly and  accommodating.  I had reserved a studio suite for the month, but when he understood the surgery I was having and my special needs, he upgraded my room to a one bedroom suite and assigned me a room he thought would be perfect for me.  (He knew I would be on my own most of the time, am older, and would be using a walker).  He made sure to add a "club chair" to the room to make it easier for me to get up and down.  As it turned out, the whole experience was perfect.  All the desk staff were so friendly and treated me like family, offering to help with anything they could.  The room faced a park/hiking trails, which helped me mentally.  The housekeeping staff were very good and respected my request that they come to my room after noon.  They made a note so that any new staff would know.  I had a couple small issues with the room and the maintenance staff took care of it immediately.  When an outside company was involved in rectifying the issue, I was called by front desk staff to approve the time for them to come.  I felt completely safe (I am female) during my stay.  I have nothing but positive comments for the entire staff and my room, in particular.  Thank you so much, Leo and staff.  Well done!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I stayed at TownePlace Suites I10/Energy corridor for a month, beginning March 12, 2015.  I had major surgery at a Houston hospital and chose to rehab here.  A few days before surgery, I visited this hotel and spoke with the General Manager, Leo.  He was very friendly and  accommodating.  I had reserved a studio suite for the month, but when he understood the surgery I was having and my special needs, he upgraded my room to a one bedroom suite and assigned me a room he thought would be perfect for me.  (He knew I would be on my own most of the time, am older, and would be using a walker).  He made sure to add a "club chair" to the room to make it easier for me to get up and down.  As it turned out, the whole experience was perfect.  All the desk staff were so friendly and treated me like family, offering to help with anything they could.  The room faced a park/hiking trails, which helped me mentally.  The housekeeping staff were very good and respected my request that they come to my room after noon.  They made a note so that any new staff would know.  I had a couple small issues with the room and the maintenance staff took care of it immediately.  When an outside company was involved in rectifying the issue, I was called by front desk staff to approve the time...I stayed at TownePlace Suites I10/Energy corridor for a month, beginning March 12, 2015.  I had major surgery at a Houston hospital and chose to rehab here.  A few days before surgery, I visited this hotel and spoke with the General Manager, Leo.  He was very friendly and  accommodating.  I had reserved a studio suite for the month, but when he understood the surgery I was having and my special needs, he upgraded my room to a one bedroom suite and assigned me a room he thought would be perfect for me.  (He knew I would be on my own most of the time, am older, and would be using a walker).  He made sure to add a "club chair" to the room to make it easier for me to get up and down.  As it turned out, the whole experience was perfect.  All the desk staff were so friendly and treated me like family, offering to help with anything they could.  The room faced a park/hiking trails, which helped me mentally.  The housekeeping staff were very good and respected my request that they come to my room after noon.  They made a note so that any new staff would know.  I had a couple small issues with the room and the maintenance staff took care of it immediately.  When an outside company was involved in rectifying the issue, I was called by front desk staff to approve the time for them to come.  I felt completely safe (I am female) during my stay.  I have nothing but positive comments for the entire staff and my room, in particular.  Thank you so much, Leo and staff.  Well done!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r260075463-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260075463</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Nice place, great rate</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights in March while attending the Southland Conference Basketball Tournament in Katy, TX.  The hotel is "hidden" behind a Fairfield Inn &amp; Suites along the south side of I-10 Katy Freeway.  The hotel occupies two three story buildings.  We were on the first floor of building 2. Elevators are available. Our room included a nice desk, couch, king bed, and kitchen area with stove, microwave, refrigerator, coffee pot.  However, there was not a table and chairs to eat at.  The room was very nice, clean, and quiet.  A nice breakfast is complementary. The only drawback was the very small breakfast area.  The attendant really had to rush to keep up with the crowd.  The staff was friendly. Baggage carts are available. The Wi-Fi was free and we had a very strong signal. We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights in March while attending the Southland Conference Basketball Tournament in Katy, TX.  The hotel is "hidden" behind a Fairfield Inn &amp; Suites along the south side of I-10 Katy Freeway.  The hotel occupies two three story buildings.  We were on the first floor of building 2. Elevators are available. Our room included a nice desk, couch, king bed, and kitchen area with stove, microwave, refrigerator, coffee pot.  However, there was not a table and chairs to eat at.  The room was very nice, clean, and quiet.  A nice breakfast is complementary. The only drawback was the very small breakfast area.  The attendant really had to rush to keep up with the crowd.  The staff was friendly. Baggage carts are available. The Wi-Fi was free and we had a very strong signal. We will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r255440041-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255440041</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Really great Staff and really clean!</t>
+  </si>
+  <si>
+    <t>Great staff lovely reception team. Lovely rooms.The staff are really friendly always willing to help.My room is always clean and offers great are to be in Houston for Oil and Gas.4/5 well done! Keep it up.. My return to Houston will see me staying at the Towneplace suites again.Lee</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r250402035-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250402035</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>No issues with this property for business travel</t>
+  </si>
+  <si>
+    <t>I stayed at this location as I have customers in the Energy Corridor as well as downtown and I was unable to find anything in the middle (/Galleria area) when coordinating a late booking. My arrival was after hours, yet I was greeted by Jermaine with a friendly welcome even though he had just finished dealing with a customer who was upset due to internet outages (not his fault). The breakfast was a good enough selection though the eggs were powdered and the bacon pretty pepper-y, they offered apples, bananas, and oranges throughout the day and hard boiled eggs (cold) which was a great feature besides the cereals and waffles. No issues with noise or cleanliness but one suggestion would be to turn on the A/C in the rooms where you are expecting guests as it was over 80 when I walked in and took awhile to cool. Beware of bottoming out on your rental car when driving over their speed bumps unless you take them at approximately 2 mph. One add'l note, if you are heading downtown in the morning it can be hell getting out of their street onto I-10/Katy Fwy so plan accordingly. I picked this location for work and the Marriott name for the points and would stay here again for business. A solid 3.5 stars which is a decent rating for TownePlace Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this location as I have customers in the Energy Corridor as well as downtown and I was unable to find anything in the middle (/Galleria area) when coordinating a late booking. My arrival was after hours, yet I was greeted by Jermaine with a friendly welcome even though he had just finished dealing with a customer who was upset due to internet outages (not his fault). The breakfast was a good enough selection though the eggs were powdered and the bacon pretty pepper-y, they offered apples, bananas, and oranges throughout the day and hard boiled eggs (cold) which was a great feature besides the cereals and waffles. No issues with noise or cleanliness but one suggestion would be to turn on the A/C in the rooms where you are expecting guests as it was over 80 when I walked in and took awhile to cool. Beware of bottoming out on your rental car when driving over their speed bumps unless you take them at approximately 2 mph. One add'l note, if you are heading downtown in the morning it can be hell getting out of their street onto I-10/Katy Fwy so plan accordingly. I picked this location for work and the Marriott name for the points and would stay here again for business. A solid 3.5 stars which is a decent rating for TownePlace Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r250172522-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250172522</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A respite from the storm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newly renovated kitchens and great bed, always clean and fresh.  Staff is the best for caring about each person's needs and breakfast is a spread of hot and cold choices. I always know that I can depend upon Marriott to keep their properties up to date. An easy choice to make in a sea of unknowns. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r249134664-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249134664</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved it!!!!  </t>
+  </si>
+  <si>
+    <t>What a perfect stay!!!!! Ok where do I start???? Humph... Alright... 
+For a quick, unexpected trip, I selected this hotel for the brand name, location &amp; the availability of pet stay. Leo, Jermaine, Brittny (spoke with her over the phone) &amp; Tiffany were FANTASTIC at accommodating my last minute needs.  From start to finish, I felt value during my stay.  Not being a novice to the Marriott brand, this treatment was expected &amp; exemplified during my entire stay.  Kudos!!!!!  
+Next, I advised the front desk of my slightly earlier than the official check in time &amp; they most graciously accommodated me.  Jermaine was friendly &amp; courteous to me even during the wee hours of the morning; how refreshing was this... Being able to check in early was fantastic, because although it's only a 5 hour drive from NOLA, it was refreshing not to have to wait around for my room.  This was a stellar move on the part of the staff members.  
+And then breakfast in the morning was also a WIN-WIN!!!! Hello... free and "i didn't have to cook it food..." yessssssss I LOVE IT!!!!!! 
+Located immediately off I-10 near the Katy-Memorial City Area, this hotel was perfect for my needs.  
+Only thing that could've been better was... THE WEATHER.  But since ONLY GOD can control that, I was SUPER satisfied with my visit.
+Marriott gets it &amp; this property &amp; the staff members are to be applauded for...What a perfect stay!!!!! Ok where do I start???? Humph... Alright... For a quick, unexpected trip, I selected this hotel for the brand name, location &amp; the availability of pet stay. Leo, Jermaine, Brittny (spoke with her over the phone) &amp; Tiffany were FANTASTIC at accommodating my last minute needs.  From start to finish, I felt value during my stay.  Not being a novice to the Marriott brand, this treatment was expected &amp; exemplified during my entire stay.  Kudos!!!!!  Next, I advised the front desk of my slightly earlier than the official check in time &amp; they most graciously accommodated me.  Jermaine was friendly &amp; courteous to me even during the wee hours of the morning; how refreshing was this... Being able to check in early was fantastic, because although it's only a 5 hour drive from NOLA, it was refreshing not to have to wait around for my room.  This was a stellar move on the part of the staff members.  And then breakfast in the morning was also a WIN-WIN!!!! Hello... free and "i didn't have to cook it food..." yessssssss I LOVE IT!!!!!! Located immediately off I-10 near the Katy-Memorial City Area, this hotel was perfect for my needs.  Only thing that could've been better was... THE WEATHER.  But since ONLY GOD can control that, I was SUPER satisfied with my visit.Marriott gets it &amp; this property &amp; the staff members are to be applauded for embodying the true meaning of CUSTOMER SERVICE &amp; GETTING IT RIGHT!!!!Thanks Leo for the accommodations!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>What a perfect stay!!!!! Ok where do I start???? Humph... Alright... 
+For a quick, unexpected trip, I selected this hotel for the brand name, location &amp; the availability of pet stay. Leo, Jermaine, Brittny (spoke with her over the phone) &amp; Tiffany were FANTASTIC at accommodating my last minute needs.  From start to finish, I felt value during my stay.  Not being a novice to the Marriott brand, this treatment was expected &amp; exemplified during my entire stay.  Kudos!!!!!  
+Next, I advised the front desk of my slightly earlier than the official check in time &amp; they most graciously accommodated me.  Jermaine was friendly &amp; courteous to me even during the wee hours of the morning; how refreshing was this... Being able to check in early was fantastic, because although it's only a 5 hour drive from NOLA, it was refreshing not to have to wait around for my room.  This was a stellar move on the part of the staff members.  
+And then breakfast in the morning was also a WIN-WIN!!!! Hello... free and "i didn't have to cook it food..." yessssssss I LOVE IT!!!!!! 
+Located immediately off I-10 near the Katy-Memorial City Area, this hotel was perfect for my needs.  
+Only thing that could've been better was... THE WEATHER.  But since ONLY GOD can control that, I was SUPER satisfied with my visit.
+Marriott gets it &amp; this property &amp; the staff members are to be applauded for...What a perfect stay!!!!! Ok where do I start???? Humph... Alright... For a quick, unexpected trip, I selected this hotel for the brand name, location &amp; the availability of pet stay. Leo, Jermaine, Brittny (spoke with her over the phone) &amp; Tiffany were FANTASTIC at accommodating my last minute needs.  From start to finish, I felt value during my stay.  Not being a novice to the Marriott brand, this treatment was expected &amp; exemplified during my entire stay.  Kudos!!!!!  Next, I advised the front desk of my slightly earlier than the official check in time &amp; they most graciously accommodated me.  Jermaine was friendly &amp; courteous to me even during the wee hours of the morning; how refreshing was this... Being able to check in early was fantastic, because although it's only a 5 hour drive from NOLA, it was refreshing not to have to wait around for my room.  This was a stellar move on the part of the staff members.  And then breakfast in the morning was also a WIN-WIN!!!! Hello... free and "i didn't have to cook it food..." yessssssss I LOVE IT!!!!!! Located immediately off I-10 near the Katy-Memorial City Area, this hotel was perfect for my needs.  Only thing that could've been better was... THE WEATHER.  But since ONLY GOD can control that, I was SUPER satisfied with my visit.Marriott gets it &amp; this property &amp; the staff members are to be applauded for embodying the true meaning of CUSTOMER SERVICE &amp; GETTING IT RIGHT!!!!Thanks Leo for the accommodations!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r244449372-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244449372</t>
+  </si>
+  <si>
+    <t>12/14/2014</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>Decent size rooms, quiet. Good amenities. Breakfast wasnt too bad, but not much variety on a day to day basis. Didnt use the pool or spa as it was too cold. Lift needed some attention as we were a little scared to get in sometimes! Overall would stay there again, staff are very good.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r244217728-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244217728</t>
+  </si>
+  <si>
+    <t>12/12/2014</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Clean, spacious place. I booked a two rooms suite and it work very well for us, I was there my wife my two daughters. It was a lot better than staying in two separate rooms. Breakfast is included although it its very basic, but it is convenient.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r235534530-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235534530</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Don't let the Outside Fool you...</t>
+  </si>
+  <si>
+    <t>I have to admit, when I pulled up I thought it was a silly mix up! The place looks like apartments or duplexes, but it was, in fact, the TownPlace Suites. They look a little rough on the outside, but the inside was pleasant. The bed in the bedroom was comfy, however, I was a little weary about letting the kids sit on the floor just because the outside of the building seemed dingy and the floors looked a little heavily traveled. Overall, I don't think it was worth the price because it wasn't up to Marriott standards that I am accustomed to. The kitchen was apparently under construction so we were told to visit room 105 to eat breakfast and that we could dine in room 104 if we decided to eat in the main building... this seemed sketchy to me, so we passed on breakfast. Had I known we were going to be in separate quarters than the main building we would have passed as well. The booking rep assured me it was the only hotel available even though there was a Fairfield inn in the same parking lot!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2014</t>
+  </si>
+  <si>
+    <t>I have to admit, when I pulled up I thought it was a silly mix up! The place looks like apartments or duplexes, but it was, in fact, the TownPlace Suites. They look a little rough on the outside, but the inside was pleasant. The bed in the bedroom was comfy, however, I was a little weary about letting the kids sit on the floor just because the outside of the building seemed dingy and the floors looked a little heavily traveled. Overall, I don't think it was worth the price because it wasn't up to Marriott standards that I am accustomed to. The kitchen was apparently under construction so we were told to visit room 105 to eat breakfast and that we could dine in room 104 if we decided to eat in the main building... this seemed sketchy to me, so we passed on breakfast. Had I known we were going to be in separate quarters than the main building we would have passed as well. The booking rep assured me it was the only hotel available even though there was a Fairfield inn in the same parking lot!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r205662871-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205662871</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay here</t>
+  </si>
+  <si>
+    <t>We stayed here with another couple for one night over the weekend.  When we checked in the staff greeted us and made us feel like they were happy that we were there.  We had reserved a suite with 2 bedrooms and asked for a quiet part of the hotel.  Our room was away from traffic and very quiet.The room was large enough for 4 people and the furniture comfortable.  If we would have been staying a longer time, it was equipped adequately for cooking and dining in.  The housekeeping staff did a good job as the room was very clean and tidy.In the morning we went down to breakfast and were pleasantly surprised at the selection of food.Not only were there the usual waffles, but also scrambled eggs, bacon, biscuits and gravy, cereal,oatmeal,yogurt,muffins, bagels and the usual juices. The lady working in the breakfast area was very nice and made sure everything was stocked.This is a place we would stay again if we were in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>We stayed here with another couple for one night over the weekend.  When we checked in the staff greeted us and made us feel like they were happy that we were there.  We had reserved a suite with 2 bedrooms and asked for a quiet part of the hotel.  Our room was away from traffic and very quiet.The room was large enough for 4 people and the furniture comfortable.  If we would have been staying a longer time, it was equipped adequately for cooking and dining in.  The housekeeping staff did a good job as the room was very clean and tidy.In the morning we went down to breakfast and were pleasantly surprised at the selection of food.Not only were there the usual waffles, but also scrambled eggs, bacon, biscuits and gravy, cereal,oatmeal,yogurt,muffins, bagels and the usual juices. The lady working in the breakfast area was very nice and made sure everything was stocked.This is a place we would stay again if we were in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r205374364-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205374364</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Average hotel, easy freeway access</t>
+  </si>
+  <si>
+    <t>There isn't much to say about this hotel.  It was as expected.  I reserved it on Priceline for about $40 over the weekend in early April.  It was a great deal for any hotel so I didn't expect much.  The parking was free and easy.  Continental breakfast was free and average, nothing extra to note.  The hotel had easy freeway access which was nice.  The room was big but the tv was in a weird spot requiring you to spin it over 90 degrees if you moved from the sofa to the bed.  Nothing else to mention.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded May 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2014</t>
+  </si>
+  <si>
+    <t>There isn't much to say about this hotel.  It was as expected.  I reserved it on Priceline for about $40 over the weekend in early April.  It was a great deal for any hotel so I didn't expect much.  The parking was free and easy.  Continental breakfast was free and average, nothing extra to note.  The hotel had easy freeway access which was nice.  The room was big but the tv was in a weird spot requiring you to spin it over 90 degrees if you moved from the sofa to the bed.  Nothing else to mention.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r205109596-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205109596</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>Little hard to find, but very good hotel</t>
+  </si>
+  <si>
+    <t>If you're coming from I-10, this place is behind the Fairfield Inn and Suites. It took me a minute to realize Towneplace was behind it. Walked in and staff was very welcoming and accommodating. Ryan at the front desk is extremely helpful.The room was larger than I expected it to be, and was nice and clean. Had a good stay there. The only real downside was the next morning. My room was on the first floor and that morning there was landscaping/lawn mowing being done, so that was quite annoying to wake up to. Other than that everything else was great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r187328045-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187328045</t>
+  </si>
+  <si>
+    <t>12/10/2013</t>
+  </si>
+  <si>
+    <t>Comfortable, Clean, Good Value</t>
+  </si>
+  <si>
+    <t>We had a pleasant stay. This is an extended stay-type place. It can be a little hard to find as it's behind a Fairfield Inn and the building isn't visible from the freeway. Our room was average sized and contained a queen bed, a sofa, a desk, and a small kitchen with a stove, microwave, refrigerator, and dishes. The decor was modern and simple. Wifi was good in our room.
+The front desk area has a computer station, a large map of the area on the wall, and a smattering of snacks, frozen meals, and toiletries for purchase. Breakfast is included in the room rate and consists of hot items (eggs, sausages, waffles from a Texas-shaped waffle iron) and cold items (yogurt, cereal, muffins, fruit). Not great, but not bad either. It was certainly very convenient. The lady in the breakfast area was friendly and says hello to everyone. There is a self-service laundry room, and a tiny gym with one elliptical and one treadmill. There's also a small outdoor pool which is not big enough if you actually want to swim; it's more for playing in.
+I am a light sleeper and was impressed by the sound proofing. The room next to us had a barking dog, and while we could hear it from the hallway, we could barely hear it in our room.
+We found the way they cleaned our room to be inconsistent, but this is a...We had a pleasant stay. This is an extended stay-type place. It can be a little hard to find as it's behind a Fairfield Inn and the building isn't visible from the freeway. Our room was average sized and contained a queen bed, a sofa, a desk, and a small kitchen with a stove, microwave, refrigerator, and dishes. The decor was modern and simple. Wifi was good in our room.The front desk area has a computer station, a large map of the area on the wall, and a smattering of snacks, frozen meals, and toiletries for purchase. Breakfast is included in the room rate and consists of hot items (eggs, sausages, waffles from a Texas-shaped waffle iron) and cold items (yogurt, cereal, muffins, fruit). Not great, but not bad either. It was certainly very convenient. The lady in the breakfast area was friendly and says hello to everyone. There is a self-service laundry room, and a tiny gym with one elliptical and one treadmill. There's also a small outdoor pool which is not big enough if you actually want to swim; it's more for playing in.I am a light sleeper and was impressed by the sound proofing. The room next to us had a barking dog, and while we could hear it from the hallway, we could barely hear it in our room.We found the way they cleaned our room to be inconsistent, but this is a minor quibble. Sometimes they replaced all the towels even though we hung them up intending to reuse them (per the instructions). One day we didn't get any square washcloths and had to ask for them at the front desk. Another day they replaced all the hotel toiletries even though they were still half full. (I hate wasting things.) One morning after a chilly night, we asked for blankets and was told they would be delivered to our room. They weren't in our room in the evening and when we asked about them, they said they had run out. But a staffer went over to the Fairfield to borrow some and delivered them with a smile. Overall, we found it to be clean, friendly, quiet, and reasonably priced. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>We had a pleasant stay. This is an extended stay-type place. It can be a little hard to find as it's behind a Fairfield Inn and the building isn't visible from the freeway. Our room was average sized and contained a queen bed, a sofa, a desk, and a small kitchen with a stove, microwave, refrigerator, and dishes. The decor was modern and simple. Wifi was good in our room.
+The front desk area has a computer station, a large map of the area on the wall, and a smattering of snacks, frozen meals, and toiletries for purchase. Breakfast is included in the room rate and consists of hot items (eggs, sausages, waffles from a Texas-shaped waffle iron) and cold items (yogurt, cereal, muffins, fruit). Not great, but not bad either. It was certainly very convenient. The lady in the breakfast area was friendly and says hello to everyone. There is a self-service laundry room, and a tiny gym with one elliptical and one treadmill. There's also a small outdoor pool which is not big enough if you actually want to swim; it's more for playing in.
+I am a light sleeper and was impressed by the sound proofing. The room next to us had a barking dog, and while we could hear it from the hallway, we could barely hear it in our room.
+We found the way they cleaned our room to be inconsistent, but this is a...We had a pleasant stay. This is an extended stay-type place. It can be a little hard to find as it's behind a Fairfield Inn and the building isn't visible from the freeway. Our room was average sized and contained a queen bed, a sofa, a desk, and a small kitchen with a stove, microwave, refrigerator, and dishes. The decor was modern and simple. Wifi was good in our room.The front desk area has a computer station, a large map of the area on the wall, and a smattering of snacks, frozen meals, and toiletries for purchase. Breakfast is included in the room rate and consists of hot items (eggs, sausages, waffles from a Texas-shaped waffle iron) and cold items (yogurt, cereal, muffins, fruit). Not great, but not bad either. It was certainly very convenient. The lady in the breakfast area was friendly and says hello to everyone. There is a self-service laundry room, and a tiny gym with one elliptical and one treadmill. There's also a small outdoor pool which is not big enough if you actually want to swim; it's more for playing in.I am a light sleeper and was impressed by the sound proofing. The room next to us had a barking dog, and while we could hear it from the hallway, we could barely hear it in our room.We found the way they cleaned our room to be inconsistent, but this is a minor quibble. Sometimes they replaced all the towels even though we hung them up intending to reuse them (per the instructions). One day we didn't get any square washcloths and had to ask for them at the front desk. Another day they replaced all the hotel toiletries even though they were still half full. (I hate wasting things.) One morning after a chilly night, we asked for blankets and was told they would be delivered to our room. They weren't in our room in the evening and when we asked about them, they said they had run out. But a staffer went over to the Fairfield to borrow some and delivered them with a smile. Overall, we found it to be clean, friendly, quiet, and reasonably priced. Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r174758201-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174758201</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>Rachel in the breakfast section</t>
+  </si>
+  <si>
+    <t>Rachel is a wonderful lady, accomodating, humble, always smiling and keeps neat environment that makes my family and i happy. I sincerely appreciate her good work.She is a good representative of the hotel.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r174230796-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174230796</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>Great value for traveling families, singles not so much.</t>
+  </si>
+  <si>
+    <t>While this wasn't really my cup of tea, I still gave it a good rateing because it was exactly what they claim it is. I was here on business and just needed a nice clean place to sleep in the energy corridor area and was not overly concerned with much else so I used the "name your own price" feature on priceline which leaves you in the dark as to the name  and type of the property until your price is accepted and there is no turning back afterward. Great deals can be had this way but it occationaly has it's drawbacks.
+I was concerned when I found out it was an extended stay type property as I generally steer clear of those due to previous bad experiences.
+The staff was extreamly friendly and helpful and the suite was clean and tidy. The only drawback for me was that all the common area's were extreamly loud and crowded with LOTS of kids running around doing what kids do. They had a very small pool on site that I would have used only it was constantly full of kids splashing each other doing cannonballs etc. Nothing at all wrong with that just not very relaxing for a single adult traveler. They also had a tiny gym on site but the story was the same there as well, full of kids at all hours.
+All in all this was a nice place,...While this wasn't really my cup of tea, I still gave it a good rateing because it was exactly what they claim it is. I was here on business and just needed a nice clean place to sleep in the energy corridor area and was not overly concerned with much else so I used the "name your own price" feature on priceline which leaves you in the dark as to the name  and type of the property until your price is accepted and there is no turning back afterward. Great deals can be had this way but it occationaly has it's drawbacks.I was concerned when I found out it was an extended stay type property as I generally steer clear of those due to previous bad experiences.The staff was extreamly friendly and helpful and the suite was clean and tidy. The only drawback for me was that all the common area's were extreamly loud and crowded with LOTS of kids running around doing what kids do. They had a very small pool on site that I would have used only it was constantly full of kids splashing each other doing cannonballs etc. Nothing at all wrong with that just not very relaxing for a single adult traveler. They also had a tiny gym on site but the story was the same there as well, full of kids at all hours.All in all this was a nice place, and obviously a great value for families traveling with children. I got a great price deal as well so I'm not complaining, it just would not be somthing I would purpously choose again when traveling alone on business.MoreShow less</t>
+  </si>
+  <si>
+    <t>While this wasn't really my cup of tea, I still gave it a good rateing because it was exactly what they claim it is. I was here on business and just needed a nice clean place to sleep in the energy corridor area and was not overly concerned with much else so I used the "name your own price" feature on priceline which leaves you in the dark as to the name  and type of the property until your price is accepted and there is no turning back afterward. Great deals can be had this way but it occationaly has it's drawbacks.
+I was concerned when I found out it was an extended stay type property as I generally steer clear of those due to previous bad experiences.
+The staff was extreamly friendly and helpful and the suite was clean and tidy. The only drawback for me was that all the common area's were extreamly loud and crowded with LOTS of kids running around doing what kids do. They had a very small pool on site that I would have used only it was constantly full of kids splashing each other doing cannonballs etc. Nothing at all wrong with that just not very relaxing for a single adult traveler. They also had a tiny gym on site but the story was the same there as well, full of kids at all hours.
+All in all this was a nice place,...While this wasn't really my cup of tea, I still gave it a good rateing because it was exactly what they claim it is. I was here on business and just needed a nice clean place to sleep in the energy corridor area and was not overly concerned with much else so I used the "name your own price" feature on priceline which leaves you in the dark as to the name  and type of the property until your price is accepted and there is no turning back afterward. Great deals can be had this way but it occationaly has it's drawbacks.I was concerned when I found out it was an extended stay type property as I generally steer clear of those due to previous bad experiences.The staff was extreamly friendly and helpful and the suite was clean and tidy. The only drawback for me was that all the common area's were extreamly loud and crowded with LOTS of kids running around doing what kids do. They had a very small pool on site that I would have used only it was constantly full of kids splashing each other doing cannonballs etc. Nothing at all wrong with that just not very relaxing for a single adult traveler. They also had a tiny gym on site but the story was the same there as well, full of kids at all hours.All in all this was a nice place, and obviously a great value for families traveling with children. I got a great price deal as well so I'm not complaining, it just would not be somthing I would purpously choose again when traveling alone on business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r171010637-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171010637</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>If you want great breakfast and cleanest place stay here!!!</t>
+  </si>
+  <si>
+    <t>I been here 30 days to be with my husband hes a marine stationed in galveston, breakfast was like home Rachel such a sweet.caring person made a big difference.in your day ask for her wished she was there all weekend too, i think i take her with us to all our hotels so others can see what real hospitality is. Our housekeeper Jalisha WOW tht girl can clean along with Brittany and Ms Maria,, we left one aftetnoon came back Jalisha had washed our dishes, really...we never had that before at any other stays so that was such a great exp in our room.  Thank you for making our stay a great one Rachel and Jalisha!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I been here 30 days to be with my husband hes a marine stationed in galveston, breakfast was like home Rachel such a sweet.caring person made a big difference.in your day ask for her wished she was there all weekend too, i think i take her with us to all our hotels so others can see what real hospitality is. Our housekeeper Jalisha WOW tht girl can clean along with Brittany and Ms Maria,, we left one aftetnoon came back Jalisha had washed our dishes, really...we never had that before at any other stays so that was such a great exp in our room.  Thank you for making our stay a great one Rachel and Jalisha!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r168463155-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168463155</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
+    <t>"Caveat emptor"</t>
+  </si>
+  <si>
+    <t>I have over 25 years of traveling and staying in hotels and have come to know Marriott as a brand I use to trust but after the experience here, I will rethink which brands I will be staying at in the future. Breach of verbal fiscal agreement and breach of security  (security door left open and door to my room left open by clean up personnel, on multiple times)are just a few of the concerns. But most frustrating was the apathetic response by both local management and personnel at the Marriott customer service. Houston has many fine hotels and you may be better off to stay at another location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded July 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2013</t>
+  </si>
+  <si>
+    <t>I have over 25 years of traveling and staying in hotels and have come to know Marriott as a brand I use to trust but after the experience here, I will rethink which brands I will be staying at in the future. Breach of verbal fiscal agreement and breach of security  (security door left open and door to my room left open by clean up personnel, on multiple times)are just a few of the concerns. But most frustrating was the apathetic response by both local management and personnel at the Marriott customer service. Houston has many fine hotels and you may be better off to stay at another location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r163805183-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163805183</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>Good value, and location</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 bedroom suite while moving house, this was a good location and price for us, and more importantly, we could bring our cats (for a $75 fee). 
+The suite had been newly renovated, and they are busy renovating the other building at this moment. Judging by some of the stuff I saw being pulled from the old rooms, the facelift was long overdue. Aside from the dishwasher coming away from the wall the first time we opened it, the kitchen is well stocked and was great for cooking small meals for the family to save on eating out. 
+The bathroom, while tiny, was clean and had lots of storage. The bedrooms were a great size, and also had lots of storage, but the beds themselves were very soft and we slept terribly all week. 
+Breakfast was an OK selection, my kids were disappointed that they only had biscuits one day, and not again. The pool was tiny, and you had to ask for pool towels at reception. We used the laundry facilities once, and I thought the dryer was on fire at one point seeing all the steam that was coming out of it. 
+Location wise, this was great for our first few days in Houston, right off I10 and Highway 6. There are lots of stores and places to eat in the area. 
+The only downsides to our stay were the broken security door, which...We stayed in a 2 bedroom suite while moving house, this was a good location and price for us, and more importantly, we could bring our cats (for a $75 fee). The suite had been newly renovated, and they are busy renovating the other building at this moment. Judging by some of the stuff I saw being pulled from the old rooms, the facelift was long overdue. Aside from the dishwasher coming away from the wall the first time we opened it, the kitchen is well stocked and was great for cooking small meals for the family to save on eating out. The bathroom, while tiny, was clean and had lots of storage. The bedrooms were a great size, and also had lots of storage, but the beds themselves were very soft and we slept terribly all week. Breakfast was an OK selection, my kids were disappointed that they only had biscuits one day, and not again. The pool was tiny, and you had to ask for pool towels at reception. We used the laundry facilities once, and I thought the dryer was on fire at one point seeing all the steam that was coming out of it. Location wise, this was great for our first few days in Houston, right off I10 and Highway 6. There are lots of stores and places to eat in the area. The only downsides to our stay were the broken security door, which was out of order all week, which meant we had to walk the long way round to our room,the room keys which kept having to be replaced because they stopped working, and the workman who just had to come and spend half an hour replacing a window in our room one afternoon, leaving a trail of dust and dirt after himself. We also had to leave the do not disturb sign on all week, because the one time I let the housekeeper in, she propped the door wide open while she worked, despite me telling her several times that we had cats in our room.MoreShow less</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded June 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2013</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 bedroom suite while moving house, this was a good location and price for us, and more importantly, we could bring our cats (for a $75 fee). 
+The suite had been newly renovated, and they are busy renovating the other building at this moment. Judging by some of the stuff I saw being pulled from the old rooms, the facelift was long overdue. Aside from the dishwasher coming away from the wall the first time we opened it, the kitchen is well stocked and was great for cooking small meals for the family to save on eating out. 
+The bathroom, while tiny, was clean and had lots of storage. The bedrooms were a great size, and also had lots of storage, but the beds themselves were very soft and we slept terribly all week. 
+Breakfast was an OK selection, my kids were disappointed that they only had biscuits one day, and not again. The pool was tiny, and you had to ask for pool towels at reception. We used the laundry facilities once, and I thought the dryer was on fire at one point seeing all the steam that was coming out of it. 
+Location wise, this was great for our first few days in Houston, right off I10 and Highway 6. There are lots of stores and places to eat in the area. 
+The only downsides to our stay were the broken security door, which...We stayed in a 2 bedroom suite while moving house, this was a good location and price for us, and more importantly, we could bring our cats (for a $75 fee). The suite had been newly renovated, and they are busy renovating the other building at this moment. Judging by some of the stuff I saw being pulled from the old rooms, the facelift was long overdue. Aside from the dishwasher coming away from the wall the first time we opened it, the kitchen is well stocked and was great for cooking small meals for the family to save on eating out. The bathroom, while tiny, was clean and had lots of storage. The bedrooms were a great size, and also had lots of storage, but the beds themselves were very soft and we slept terribly all week. Breakfast was an OK selection, my kids were disappointed that they only had biscuits one day, and not again. The pool was tiny, and you had to ask for pool towels at reception. We used the laundry facilities once, and I thought the dryer was on fire at one point seeing all the steam that was coming out of it. Location wise, this was great for our first few days in Houston, right off I10 and Highway 6. There are lots of stores and places to eat in the area. The only downsides to our stay were the broken security door, which was out of order all week, which meant we had to walk the long way round to our room,the room keys which kept having to be replaced because they stopped working, and the workman who just had to come and spend half an hour replacing a window in our room one afternoon, leaving a trail of dust and dirt after himself. We also had to leave the do not disturb sign on all week, because the one time I let the housekeeper in, she propped the door wide open while she worked, despite me telling her several times that we had cats in our room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r158251505-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158251505</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Good stop on the I-10 corridor to the west</t>
+  </si>
+  <si>
+    <t>I came into this hotel late at night with a car packed to the gills. I was relieved to find that there was security and a gate. Since it is on the western side of Houston this was a good stop on the way to the West Coast. The usual Hampton Inn amenities were there and my room was clean and in good order. The fitness room was in good condition. The staff was helpful and efficient. The breakfast was fine and the coffee was excellent. Starbucks and gas stations are nearby so it's easy to get back on the road ready to go.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded May 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2013</t>
+  </si>
+  <si>
+    <t>I came into this hotel late at night with a car packed to the gills. I was relieved to find that there was security and a gate. Since it is on the western side of Houston this was a good stop on the way to the West Coast. The usual Hampton Inn amenities were there and my room was clean and in good order. The fitness room was in good condition. The staff was helpful and efficient. The breakfast was fine and the coffee was excellent. Starbucks and gas stations are nearby so it's easy to get back on the road ready to go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r152494271-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152494271</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>I had very good experience during my long stay in Towneplace. Staff is very courteous and helpful , rooms are good , nice kitchen facility. Particularly Justin and Rachel are very helpful. Always looking forward to help you. Justin always tries his  best to help problems not even related to stay. Morning breakfast was pleasant with Rachel's greetings.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded March 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2013</t>
+  </si>
+  <si>
+    <t>I had very good experience during my long stay in Towneplace. Staff is very courteous and helpful , rooms are good , nice kitchen facility. Particularly Justin and Rachel are very helpful. Always looking forward to help you. Justin always tries his  best to help problems not even related to stay. Morning breakfast was pleasant with Rachel's greetings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r146973642-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146973642</t>
+  </si>
+  <si>
+    <t>12/07/2012</t>
+  </si>
+  <si>
+    <t>Great Value!</t>
+  </si>
+  <si>
+    <t>This hotel won't blow you away with amenities, but for the price, it is excellent. Very comfortable and quiet. I stayed here on a few occasions for multiple weeks at a time will my wife and son while working in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded December 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2012</t>
+  </si>
+  <si>
+    <t>This hotel won't blow you away with amenities, but for the price, it is excellent. Very comfortable and quiet. I stayed here on a few occasions for multiple weeks at a time will my wife and son while working in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r136015300-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136015300</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, wildly friendly</t>
+  </si>
+  <si>
+    <t>The hotel was clean and comfortable.  Two colleagues and i stayed in a 2-BR Suite.  It was well cared for and plenty spacious.  The internet was fast enough, and the breakfast was a step up from the traditional continental, nothing fancy but adequate.  Where this hotel really wins is with the staff.  We were only there for two nights and the staff used my name multiple times in greeting me.  The Assist. GM Justin was overly friendly and willing to do just about anything to make sure the guests were card for.  It was as though we were staying at a five star hotel.  Incredible service.  Way to go staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded August 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2012</t>
+  </si>
+  <si>
+    <t>The hotel was clean and comfortable.  Two colleagues and i stayed in a 2-BR Suite.  It was well cared for and plenty spacious.  The internet was fast enough, and the breakfast was a step up from the traditional continental, nothing fancy but adequate.  Where this hotel really wins is with the staff.  We were only there for two nights and the staff used my name multiple times in greeting me.  The Assist. GM Justin was overly friendly and willing to do just about anything to make sure the guests were card for.  It was as though we were staying at a five star hotel.  Incredible service.  Way to go staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r133287435-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133287435</t>
+  </si>
+  <si>
+    <t>07/02/2012</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel!</t>
+  </si>
+  <si>
+    <t>The hotel is clean and the staff is more than accomodating to its guests! I had an extended stay for 9 weeks and Justin was friendly, efficient, and anticipated my needs. All of the staff were polite and courteous while I was walking the grounds, The hotel is between I-10 and a park/resevoir; which makes the area serene and comfortable; yet great acessibility. I cannot say enough of the staff and how well I was treated. I would highly recommend this hotel and would stay there again. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2012</t>
+  </si>
+  <si>
+    <t>The hotel is clean and the staff is more than accomodating to its guests! I had an extended stay for 9 weeks and Justin was friendly, efficient, and anticipated my needs. All of the staff were polite and courteous while I was walking the grounds, The hotel is between I-10 and a park/resevoir; which makes the area serene and comfortable; yet great acessibility. I cannot say enough of the staff and how well I was treated. I would highly recommend this hotel and would stay there again. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r131347663-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131347663</t>
+  </si>
+  <si>
+    <t>06/05/2012</t>
+  </si>
+  <si>
+    <t>Still Smiliing!!!</t>
+  </si>
+  <si>
+    <t>We booked our room over June 2nd- 3rd 2012....graduation weekend. My daughter celebrated her 5th grade promotion to Middle School @ Towneplace Suites by Marriot..and I must say that it was GREAT!!!!!! Justin @ the Front Desk went above and beyond for us! We bbq'd poolside as the girls splashed away!! When we called for extra pillows @ MIDNIGHT for our pillow fight..we were promptly served and with a SMILE!!  As a single mother with two children and 6 kids as guests for the party...the staff was friendly, SUPER HELPFUL, the room and property were clean,cute and quaint.  The  young lady that worked the breakfast shift on sunday was so patient and kind with us..the food was hot, the fruit was fresh and tthe coffee was DEEE---LIISHH!!THANK YOU ALL SO MUCH FOR A WONDERFUL STAY!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2012</t>
+  </si>
+  <si>
+    <t>We booked our room over June 2nd- 3rd 2012....graduation weekend. My daughter celebrated her 5th grade promotion to Middle School @ Towneplace Suites by Marriot..and I must say that it was GREAT!!!!!! Justin @ the Front Desk went above and beyond for us! We bbq'd poolside as the girls splashed away!! When we called for extra pillows @ MIDNIGHT for our pillow fight..we were promptly served and with a SMILE!!  As a single mother with two children and 6 kids as guests for the party...the staff was friendly, SUPER HELPFUL, the room and property were clean,cute and quaint.  The  young lady that worked the breakfast shift on sunday was so patient and kind with us..the food was hot, the fruit was fresh and tthe coffee was DEEE---LIISHH!!THANK YOU ALL SO MUCH FOR A WONDERFUL STAY!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r127527021-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127527021</t>
+  </si>
+  <si>
+    <t>04/09/2012</t>
+  </si>
+  <si>
+    <t>Better for longer stay</t>
+  </si>
+  <si>
+    <t>We needed a room for the Easter weekend and chose to stay here. It has been updated recently and is filled with bright colors. The rooms are not huge but very big and were clean. The queen suite includes a sofa bed. The most surprising thing was the full kitchen. If you are looking to stay for a week or more, this is the place to do it. The parking lot security was impressive as well although this is a nice area of Houston. The staff was very friendly and responded to all of our requests quickly. The morning breakfast was filled with hot and cold choices. This is a good value as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded May 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2012</t>
+  </si>
+  <si>
+    <t>We needed a room for the Easter weekend and chose to stay here. It has been updated recently and is filled with bright colors. The rooms are not huge but very big and were clean. The queen suite includes a sofa bed. The most surprising thing was the full kitchen. If you are looking to stay for a week or more, this is the place to do it. The parking lot security was impressive as well although this is a nice area of Houston. The staff was very friendly and responded to all of our requests quickly. The morning breakfast was filled with hot and cold choices. This is a good value as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r124136068-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124136068</t>
+  </si>
+  <si>
+    <t>02/04/2012</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>I stayed here two consecutive weeks.  The place had a very good rate for places in the area and I generally like the Marriott chain, so I gave it a try.The room was a good size.  The bed was fairly comfortable.  The bathroom was pretty standard but in good shape.  There was a comfortable sofa and a good desk.  It had a full kitchen which I did not use.The airconditioner was a bit noisy, but not too bad.  The breakfast was free and pretty nice with some sort of  sausage and eggs, bacon every day.  The staff were very friendly and competent.  The rooms and furnishings were in good shape.  There was not very much road noise from the highway which is mostly blocked by the other surrounding buildings.  There was some noise from the hallway (slamming doors) and from the TV in the connecting room.All-in-all a good place in the area to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded February 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here two consecutive weeks.  The place had a very good rate for places in the area and I generally like the Marriott chain, so I gave it a try.The room was a good size.  The bed was fairly comfortable.  The bathroom was pretty standard but in good shape.  There was a comfortable sofa and a good desk.  It had a full kitchen which I did not use.The airconditioner was a bit noisy, but not too bad.  The breakfast was free and pretty nice with some sort of  sausage and eggs, bacon every day.  The staff were very friendly and competent.  The rooms and furnishings were in good shape.  There was not very much road noise from the highway which is mostly blocked by the other surrounding buildings.  There was some noise from the hallway (slamming doors) and from the TV in the connecting room.All-in-all a good place in the area to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r109284233-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>109284233</t>
+  </si>
+  <si>
+    <t>05/22/2011</t>
+  </si>
+  <si>
+    <t>Meets Expectations</t>
+  </si>
+  <si>
+    <t>I had the misfortune of visiting Houston during OTC week. While I would normally stay in the city, everything was full or prices were ridiculous so I stayed here.  While it made for a long drive into the center of Houston, I was happy enough with my decision.  I was not expecting the Ritz but was pleasantly surprised.  The rooms are nice enough, the reception I got on checking in was quite good.  The staff was always friendly and helpful. When I am staying someplace for multiple days, I like staying someplace that has a kitchen so I can cook my own food rather than eat out all the time.  The kitchen at this hotel was more than adequate.  Breakfast was a bit underwhelming compared to a Hampton Inn, so I only had the breakfast one day.  Simply not much variety.  Laundry room was good and free wifi is always a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>I had the misfortune of visiting Houston during OTC week. While I would normally stay in the city, everything was full or prices were ridiculous so I stayed here.  While it made for a long drive into the center of Houston, I was happy enough with my decision.  I was not expecting the Ritz but was pleasantly surprised.  The rooms are nice enough, the reception I got on checking in was quite good.  The staff was always friendly and helpful. When I am staying someplace for multiple days, I like staying someplace that has a kitchen so I can cook my own food rather than eat out all the time.  The kitchen at this hotel was more than adequate.  Breakfast was a bit underwhelming compared to a Hampton Inn, so I only had the breakfast one day.  Simply not much variety.  Laundry room was good and free wifi is always a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r8141568-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8141568</t>
+  </si>
+  <si>
+    <t>07/17/2007</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable Suite hotel outside the Beltway 8</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed here three times, for a week about each time.  We stay in a two bedroom suite.It is clean and convenient and is designed for an extended stay.  The suite has a full kitchen, utensils, and a TV in the living area and each bedroom.  They provide free wireless internet access in each room.  There is a laundry room in the main building.The staff is very friendly.There is a free breakfast each morning.The mattresses are quite soft.  We are used to firm mattresses and sleeping on these are a challenge for several days. The suite has one small bathroom. It is about 15 miles or so from downtown and the traffic congestion in Houston at rush hours can be quite bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed here three times, for a week about each time.  We stay in a two bedroom suite.It is clean and convenient and is designed for an extended stay.  The suite has a full kitchen, utensils, and a TV in the living area and each bedroom.  They provide free wireless internet access in each room.  There is a laundry room in the main building.The staff is very friendly.There is a free breakfast each morning.The mattresses are quite soft.  We are used to firm mattresses and sleeping on these are a challenge for several days. The suite has one small bathroom. It is about 15 miles or so from downtown and the traffic congestion in Houston at rush hours can be quite bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r3799435-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3799435</t>
+  </si>
+  <si>
+    <t>08/22/2005</t>
+  </si>
+  <si>
+    <t>It IS like home!</t>
+  </si>
+  <si>
+    <t>While visiting Houston for a soccer tournament, several members of our team stayed at the TownePlace Suites and were very pleased.  As a team we like to get together for at least one meal while traveling and having a kitchen made it possible to upgrade our meal from sandwiches to spaghetti.The staff was eager to accommodate us by allowing use of the hotel area where breakfast is served for our evening meal. This made it quite convenient and allowed plenty of room for our 30+ players and family to eat, laugh, and share.We are a family of four (2 teenagers) and having 2 bedrooms and a separate living room with a pull out sofa was perfect for sleeping. We old folks slept comfortably without the noise of television or music in the seclusion of our own room. Location was easy access, price was great for the space, hospitality was perfect.  The only reason for not giving 5 stars is the fact that the pool was only 4 feet deep and the living room furniture was somewhat worn.  If that is not an issue for you, than I would highly recommend a stay with TownePlace Suites Houston West!MoreShow less</t>
+  </si>
+  <si>
+    <t>While visiting Houston for a soccer tournament, several members of our team stayed at the TownePlace Suites and were very pleased.  As a team we like to get together for at least one meal while traveling and having a kitchen made it possible to upgrade our meal from sandwiches to spaghetti.The staff was eager to accommodate us by allowing use of the hotel area where breakfast is served for our evening meal. This made it quite convenient and allowed plenty of room for our 30+ players and family to eat, laugh, and share.We are a family of four (2 teenagers) and having 2 bedrooms and a separate living room with a pull out sofa was perfect for sleeping. We old folks slept comfortably without the noise of television or music in the seclusion of our own room. Location was easy access, price was great for the space, hospitality was perfect.  The only reason for not giving 5 stars is the fact that the pool was only 4 feet deep and the living room furniture was somewhat worn.  If that is not an issue for you, than I would highly recommend a stay with TownePlace Suites Houston West!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r1442352-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>1442352</t>
+  </si>
+  <si>
+    <t>11/07/2003</t>
+  </si>
+  <si>
+    <t>Good enough</t>
+  </si>
+  <si>
+    <t>Stayed there not too long ago. Its good enough, but certainly nothing that will blow your skirt up. The rooms are clean, but the TV channel selection could use some work.The staff is friendly enough, but somehow they didn't have enough smoking rooms to get me in.The biggest problem was that if you aren't form Houston, the hotel is murder to find. And the left turn out of the parking lot in the mornings was awful.Guess the developers didn't really consider ingress and egress as a major priority when they built the place.For your money, its good enough.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1732,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1764,3336 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>160</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>119</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>173</v>
+      </c>
+      <c r="X17" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>189</v>
+      </c>
+      <c r="X19" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>160</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>223</v>
+      </c>
+      <c r="O24" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>230</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" t="s">
+        <v>235</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>236</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L27" t="s">
+        <v>242</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>236</v>
+      </c>
+      <c r="O28" t="s">
+        <v>248</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s">
+        <v>248</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" t="s">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s">
+        <v>266</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>267</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>268</v>
+      </c>
+      <c r="X31" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>276</v>
+      </c>
+      <c r="O32" t="s">
+        <v>248</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>279</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>283</v>
+      </c>
+      <c r="O33" t="s">
+        <v>160</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>284</v>
+      </c>
+      <c r="X33" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>276</v>
+      </c>
+      <c r="O34" t="s">
+        <v>119</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>293</v>
+      </c>
+      <c r="J35" t="s">
+        <v>294</v>
+      </c>
+      <c r="K35" t="s">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s">
+        <v>296</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>297</v>
+      </c>
+      <c r="O35" t="s">
+        <v>119</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>299</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>300</v>
+      </c>
+      <c r="J36" t="s">
+        <v>301</v>
+      </c>
+      <c r="K36" t="s">
+        <v>302</v>
+      </c>
+      <c r="L36" t="s">
+        <v>303</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>304</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>306</v>
+      </c>
+      <c r="J37" t="s">
+        <v>307</v>
+      </c>
+      <c r="K37" t="s">
+        <v>308</v>
+      </c>
+      <c r="L37" t="s">
+        <v>309</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>304</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>312</v>
+      </c>
+      <c r="J38" t="s">
+        <v>313</v>
+      </c>
+      <c r="K38" t="s">
+        <v>314</v>
+      </c>
+      <c r="L38" t="s">
+        <v>315</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>317</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>319</v>
+      </c>
+      <c r="K39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>322</v>
+      </c>
+      <c r="O39" t="s">
+        <v>160</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>323</v>
+      </c>
+      <c r="X39" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>327</v>
+      </c>
+      <c r="J40" t="s">
+        <v>328</v>
+      </c>
+      <c r="K40" t="s">
+        <v>329</v>
+      </c>
+      <c r="L40" t="s">
+        <v>330</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>322</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>331</v>
+      </c>
+      <c r="X40" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41" t="s">
+        <v>336</v>
+      </c>
+      <c r="K41" t="s">
+        <v>337</v>
+      </c>
+      <c r="L41" t="s">
+        <v>338</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>339</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>340</v>
+      </c>
+      <c r="X41" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>343</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>344</v>
+      </c>
+      <c r="J42" t="s">
+        <v>345</v>
+      </c>
+      <c r="K42" t="s">
+        <v>346</v>
+      </c>
+      <c r="L42" t="s">
+        <v>347</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>348</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>349</v>
+      </c>
+      <c r="X42" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>352</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>353</v>
+      </c>
+      <c r="J43" t="s">
+        <v>354</v>
+      </c>
+      <c r="K43" t="s">
+        <v>355</v>
+      </c>
+      <c r="L43" t="s">
+        <v>356</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>357</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>358</v>
+      </c>
+      <c r="X43" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>361</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>362</v>
+      </c>
+      <c r="J44" t="s">
+        <v>363</v>
+      </c>
+      <c r="K44" t="s">
+        <v>364</v>
+      </c>
+      <c r="L44" t="s">
+        <v>365</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>366</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>367</v>
+      </c>
+      <c r="X44" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>370</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J45" t="s">
+        <v>372</v>
+      </c>
+      <c r="K45" t="s">
+        <v>373</v>
+      </c>
+      <c r="L45" t="s">
+        <v>374</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>375</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>376</v>
+      </c>
+      <c r="X45" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>380</v>
+      </c>
+      <c r="J46" t="s">
+        <v>381</v>
+      </c>
+      <c r="K46" t="s">
+        <v>382</v>
+      </c>
+      <c r="L46" t="s">
+        <v>383</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>375</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>384</v>
+      </c>
+      <c r="X46" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>388</v>
+      </c>
+      <c r="J47" t="s">
+        <v>389</v>
+      </c>
+      <c r="K47" t="s">
+        <v>390</v>
+      </c>
+      <c r="L47" t="s">
+        <v>391</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>357</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>392</v>
+      </c>
+      <c r="X47" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>396</v>
+      </c>
+      <c r="J48" t="s">
+        <v>397</v>
+      </c>
+      <c r="K48" t="s">
+        <v>398</v>
+      </c>
+      <c r="L48" t="s">
+        <v>399</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>400</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>401</v>
+      </c>
+      <c r="X48" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>404</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>405</v>
+      </c>
+      <c r="J49" t="s">
+        <v>406</v>
+      </c>
+      <c r="K49" t="s">
+        <v>407</v>
+      </c>
+      <c r="L49" t="s">
+        <v>408</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>409</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>411</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>412</v>
+      </c>
+      <c r="J50" t="s">
+        <v>413</v>
+      </c>
+      <c r="K50" t="s">
+        <v>414</v>
+      </c>
+      <c r="L50" t="s">
+        <v>415</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>416</v>
+      </c>
+      <c r="O50" t="s">
+        <v>119</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>418</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>419</v>
+      </c>
+      <c r="J51" t="s">
+        <v>420</v>
+      </c>
+      <c r="K51" t="s">
+        <v>421</v>
+      </c>
+      <c r="L51" t="s">
+        <v>422</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>424</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>425</v>
+      </c>
+      <c r="J52" t="s">
+        <v>426</v>
+      </c>
+      <c r="K52" t="s">
+        <v>427</v>
+      </c>
+      <c r="L52" t="s">
+        <v>428</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_657.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_657.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="665">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r606855435-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107954</t>
+  </si>
+  <si>
+    <t>606855435</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>Stayed for 2 different periods at this hotel. Excellent reception and welcome. The front desk staff Deja we super awesome...Also Sharlene the AGM and the GM Angie are all super professional and made our staff good. Keep it up</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r598937599-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>598937599</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Minor issues</t>
+  </si>
+  <si>
+    <t>The company I worked for handled the reservation/payment.I liked:The room’s illumination.Proper size work desk.Rotatory tray TV (to watch whether you are in the kitchen, desk or bed).General sanitation (clean sheets, floors, etc.)Shower: Option to adjust pressure. No drastic changes in temperature.I disliked:TV/cable: It took 7 to 8 seconds to switch between the channels.Walls/insulation: I could hear my next room neighbor cough.Overall a good stay!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r588637278-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107954</t>
-  </si>
-  <si>
     <t>588637278</t>
   </si>
   <si>
@@ -177,9 +219,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r573621596-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -198,9 +237,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Angie S, General Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded April 21, 2018</t>
   </si>
   <si>
@@ -237,6 +273,48 @@
     <t>This was our second TownePlace Suites stay; the first one was at a different location and we were thrilled with that stay! So we chose this location based on the previous experience. Be aware that NOT all TownPlace Suites are kept up in the same way. I could not fault the service; everyone who worked there was attentive and friendly. But our room, 314, which was a 2 bedroom suite, smelled like old socks, the living room A/C did not work, and the bedroom A/C was noisy and rattled. The toilet paper holder was falling out of the wall and there was rust and hair in the bathtub. The kitchen floor felt greasy. We were only there one night, and if it had been a longer stay, we would have complained and probably had these issues fixed. The good news is the fitness room was clean and had functioning equipment, which I appreciated. The breakfast was decent but the "coffee" was undrinkable. I would not have recognized it as "coffee" if the pot didn't say so. The in-room coffee was almost, but not quite, as terrible. I found the beds to be clean and reasonably comfortable, but again, I could not sleep with the A/C unit being so noisy, and furthermore, the doors slam so hard in this hotel, so starting at 5 a.m. you could hear every door in the hallway slamming as people were waking up and leaving....This was our second TownePlace Suites stay; the first one was at a different location and we were thrilled with that stay! So we chose this location based on the previous experience. Be aware that NOT all TownPlace Suites are kept up in the same way. I could not fault the service; everyone who worked there was attentive and friendly. But our room, 314, which was a 2 bedroom suite, smelled like old socks, the living room A/C did not work, and the bedroom A/C was noisy and rattled. The toilet paper holder was falling out of the wall and there was rust and hair in the bathtub. The kitchen floor felt greasy. We were only there one night, and if it had been a longer stay, we would have complained and probably had these issues fixed. The good news is the fitness room was clean and had functioning equipment, which I appreciated. The breakfast was decent but the "coffee" was undrinkable. I would not have recognized it as "coffee" if the pot didn't say so. The in-room coffee was almost, but not quite, as terrible. I found the beds to be clean and reasonably comfortable, but again, I could not sleep with the A/C unit being so noisy, and furthermore, the doors slam so hard in this hotel, so starting at 5 a.m. you could hear every door in the hallway slamming as people were waking up and leaving. So, it was a very uneven experience overall. I will think twice before assuming that all TownePlace Suites are as nice as the first one we visited.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r563012604-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563012604</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New management has turned this place around!! All other staff were terrific.  Rooms were clean and comfortable. The kitchen was a big bonus. Check in and check out were a breeze. I recommend this place to anyone looking for a nice place to stay. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r562198456-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562198456</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Horrible Hotel with Bed Bugs!!! RUN</t>
+  </si>
+  <si>
+    <t>This hotel is horrible in every sense of the word. There were bedbugs in the room (bed and sofa). The place is dirty, especially the carpet. Additionally the service is awful, doors don't work, check in desk was in a different place from the actual room. I showed the front desk the bed bug picture and i didnt even get a sorry. Everything was horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angie S, General Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded February 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is horrible in every sense of the word. There were bedbugs in the room (bed and sofa). The place is dirty, especially the carpet. Additionally the service is awful, doors don't work, check in desk was in a different place from the actual room. I showed the front desk the bed bug picture and i didnt even get a sorry. Everything was horrible.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r543840218-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -309,6 +387,51 @@
     <t>If you are looking for a "Like Home" environment while you are on the road with kids, THIS is the place to stay. The Staff was absolutely warm, inviting, caring and awesome!Hot, consistent breakfast experience each morning My room was always clean!My service was consistent no matter who worked the front or housekeeping!Front DeskHeatherCentericaEricMaintenanceRockyRockelleCyntrelle- HousekeepingTarell- Management Thanks, Towneplace! I will be back!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r489934517-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489934517</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stay!</t>
+  </si>
+  <si>
+    <t>The hotel room was way better than expected! We arrived after driving 10 hours from out of town and the check in was nice and fast. We had the 2 bedroom suite and it was very spacious and clean! I liked how there was an individual AC unit for each room. The kitchen looked nice and was stocked with plates, silverware, ice, and cookware. The complimentary breakfast was nice, the staff was very polite. Housekeeping came everyday, also very polite. We stayed for a week, and enjoyed our time here. The location was very convenient. Will definitely book here for future stays!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r487548500-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487548500</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>AC Had old musty smell</t>
+  </si>
+  <si>
+    <t>Overall stay was okay. We had a 2 bedroom suite and the AC in one bedroom had an old musty smell. We just turned the unit off and unit in the other bedroom and living area kept the rooms cool enough. The breakfast was good and every employee we came in contact was nice. Accommodations were good for this type of hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Overall stay was okay. We had a 2 bedroom suite and the AC in one bedroom had an old musty smell. We just turned the unit off and unit in the other bedroom and living area kept the rooms cool enough. The breakfast was good and every employee we came in contact was nice. Accommodations were good for this type of hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r478710018-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -375,9 +498,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>TMIHospitality1, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded March 6, 2017</t>
   </si>
   <si>
@@ -387,6 +507,60 @@
     <t>We arrived late on Thursday night (3/2) for a two night stay. There was a situation at check in with the person before me, but Meg handled the situation with professionalism and should be commended. She was the sweetest &amp; provided excellent customer service.The service we received after that was great. The hotel is a little dated, but nice nonetheless.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r461812533-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461812533</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Literally worst service ever</t>
+  </si>
+  <si>
+    <t>I would not stay here ever again. The building, the property is great, the hotel is in a convenient location off the freeway. We were just driving through Houston so it was perfect. But, the people I encountered there were horrible. I arrived at around 4am, I asked the front desk agent if i we could get a late check out, she said no, then the room keys were not working and the overnight girl was alone (not her fault, i understand) so nobody could help. About 45 minutes later we get into our room, the front desk agent apologizes for the inconvenience and says we are definitely getting a late check out of 2pm complimentary. (keep in mind standard check out time is 12pm) The next morning at 11 am (so, an hour early) a housekeeper is knocking, she disregards the Do Not Disturb sign that was on our door and opens the door anyway. She is hassling us to check out, i told her we had a late check out so she leaves. I immediately get a call from the front desk manager asking if I had a late check out and who I arranged it with and she says "okay ill give her a call" and hangs up. We decided to leave at 12 anyway because we were so upset. When we leave the room the housekeeper is leaning on her cart next to our door staring...I would not stay here ever again. The building, the property is great, the hotel is in a convenient location off the freeway. We were just driving through Houston so it was perfect. But, the people I encountered there were horrible. I arrived at around 4am, I asked the front desk agent if i we could get a late check out, she said no, then the room keys were not working and the overnight girl was alone (not her fault, i understand) so nobody could help. About 45 minutes later we get into our room, the front desk agent apologizes for the inconvenience and says we are definitely getting a late check out of 2pm complimentary. (keep in mind standard check out time is 12pm) The next morning at 11 am (so, an hour early) a housekeeper is knocking, she disregards the Do Not Disturb sign that was on our door and opens the door anyway. She is hassling us to check out, i told her we had a late check out so she leaves. I immediately get a call from the front desk manager asking if I had a late check out and who I arranged it with and she says "okay ill give her a call" and hangs up. We decided to leave at 12 anyway because we were so upset. When we leave the room the housekeeper is leaning on her cart next to our door staring at us watching us leave. seriously? and then I go to the front desk to drop off my keys and the manager says "I thought you were staying until 2!"... no thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>I would not stay here ever again. The building, the property is great, the hotel is in a convenient location off the freeway. We were just driving through Houston so it was perfect. But, the people I encountered there were horrible. I arrived at around 4am, I asked the front desk agent if i we could get a late check out, she said no, then the room keys were not working and the overnight girl was alone (not her fault, i understand) so nobody could help. About 45 minutes later we get into our room, the front desk agent apologizes for the inconvenience and says we are definitely getting a late check out of 2pm complimentary. (keep in mind standard check out time is 12pm) The next morning at 11 am (so, an hour early) a housekeeper is knocking, she disregards the Do Not Disturb sign that was on our door and opens the door anyway. She is hassling us to check out, i told her we had a late check out so she leaves. I immediately get a call from the front desk manager asking if I had a late check out and who I arranged it with and she says "okay ill give her a call" and hangs up. We decided to leave at 12 anyway because we were so upset. When we leave the room the housekeeper is leaning on her cart next to our door staring...I would not stay here ever again. The building, the property is great, the hotel is in a convenient location off the freeway. We were just driving through Houston so it was perfect. But, the people I encountered there were horrible. I arrived at around 4am, I asked the front desk agent if i we could get a late check out, she said no, then the room keys were not working and the overnight girl was alone (not her fault, i understand) so nobody could help. About 45 minutes later we get into our room, the front desk agent apologizes for the inconvenience and says we are definitely getting a late check out of 2pm complimentary. (keep in mind standard check out time is 12pm) The next morning at 11 am (so, an hour early) a housekeeper is knocking, she disregards the Do Not Disturb sign that was on our door and opens the door anyway. She is hassling us to check out, i told her we had a late check out so she leaves. I immediately get a call from the front desk manager asking if I had a late check out and who I arranged it with and she says "okay ill give her a call" and hangs up. We decided to leave at 12 anyway because we were so upset. When we leave the room the housekeeper is leaning on her cart next to our door staring at us watching us leave. seriously? and then I go to the front desk to drop off my keys and the manager says "I thought you were staying until 2!"... no thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r455681152-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455681152</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Best pet friendly hotel</t>
+  </si>
+  <si>
+    <t>On our road trip to Los Angeles, CA, we looked for pet friendly hotels. We had stayed the previous night at a Days Inn; this was a very disappointing experience.  Room was dirty and smelly.For our next scheduled stop we searched and found Towneplace Suites hotel in Houston, TX.  What a difference it was!  Clean ample room that accommodated to our needs, friendly staff, and a tasty breakfast with real eggs.We will be looking for Towneplace by Marriott hotels from now on!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>On our road trip to Los Angeles, CA, we looked for pet friendly hotels. We had stayed the previous night at a Days Inn; this was a very disappointing experience.  Room was dirty and smelly.For our next scheduled stop we searched and found Towneplace Suites hotel in Houston, TX.  What a difference it was!  Clean ample room that accommodated to our needs, friendly staff, and a tasty breakfast with real eggs.We will be looking for Towneplace by Marriott hotels from now on!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r453918097-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -402,9 +576,6 @@
     <t>Recently finished a two-month stay there while completing a job in Houston.  Extremely happy with my stay - room was clean, spacious with lots of amenities.  In addition every staff member, from front desk to housekeeping to the breakfast staff, could not have been more friendly and helpful.  They truly went out of their way to make us feel like very valued guests.  Breakfast area was clean with many choices.  Would not hesitate to stay there again if ever in the area.  I very highly recommend this hotel!!!MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>TMIHospitality1, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded January 26, 2017</t>
   </si>
   <si>
@@ -465,6 +636,48 @@
     <t>My Husband and I stayed at this hotel in May. As usual with Marriott we received a great welcome and our room was lovely and clean. The staff on reception were very friendly as were the staff at breakfast. The only problem that we experienced during our stay was that on our 2nd to last day we went out early in the morning and when we returned in the evening we found that after the staff had cleaned our room, the door to the room was not shut properly and was slightly ajar, thankfully it appears that none of our belongings had been stolen. I reported this to the staff on reception and they said they will ask the cleaning staff to be more careful. My Husband contacted the hotel manager several times and after a couple of weeks he received an email with a simple apology, he has also contacted Marriott headquarters a few times too but as yet they have not responded.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r383183850-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383183850</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Very friendly staff</t>
+  </si>
+  <si>
+    <t>Martin at check in was super polite and nice. He explained every detail and recognised my silver elite status. We booked a 1 bedroom suite. Very spacious and clean.Kitchen very nice. It had everything we needed.Breakfast was one of the best I have seen in town place. I would say this towneplace is like a mini Residence Inn my favourite Marriott.All staff was very polite. The young lady in the breakfast was very attentive and willing to help.Our housekeeper always had a welcoming smile.Keep on the great guest services.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded July 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2016</t>
+  </si>
+  <si>
+    <t>Martin at check in was super polite and nice. He explained every detail and recognised my silver elite status. We booked a 1 bedroom suite. Very spacious and clean.Kitchen very nice. It had everything we needed.Breakfast was one of the best I have seen in town place. I would say this towneplace is like a mini Residence Inn my favourite Marriott.All staff was very polite. The young lady in the breakfast was very attentive and willing to help.Our housekeeper always had a welcoming smile.Keep on the great guest services.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r380407778-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380407778</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>We are very comfortable at TownePlace!</t>
+  </si>
+  <si>
+    <t>Small suite, but comfortable for two.  Even though lots of other guests, did not hear them.  Very minor room issues resolved quickly by staff.  Due to plans, not able to use pool (outdoor) or gym.  Breakfast room small, but guests moved in and out quickly.  Yes, we will be staying again!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r377025015-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -519,6 +732,48 @@
     <t>very friendly service, and attentive at all times. the room was clean and well appointed. the breakfast was very good. they have facilities, such as pool and excercise room. overall a good choice for a short period.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r354692975-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354692975</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>February 2016 stay</t>
+  </si>
+  <si>
+    <t>This was the hotel selected for our child's soccer team to stay for a tournament early in 2016. This hotel offered two bedroom suites for a minimal amount over their normal room, which allowed for the room to be larger than normal. However, the ceilings are very low, which rather takes away from the extra square footage. Additionally, there is NO lobby area or any space available for parents or teams to gather and just "hang out." This hotel would be fine for a family who may be passing through Houston, but I am not sure I would want to stay here for any length of time.The check-in process was very slow... only one person working the desk and they were dealing with a family who wanted to move to a new room. This took a WHILE to accomplish. And while the location was convenient to the soccer fields, this hotel can be very tricky to find. It's tucked behind another hotel. If you miss the small sign, you could easily drive right past the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2016</t>
+  </si>
+  <si>
+    <t>This was the hotel selected for our child's soccer team to stay for a tournament early in 2016. This hotel offered two bedroom suites for a minimal amount over their normal room, which allowed for the room to be larger than normal. However, the ceilings are very low, which rather takes away from the extra square footage. Additionally, there is NO lobby area or any space available for parents or teams to gather and just "hang out." This hotel would be fine for a family who may be passing through Houston, but I am not sure I would want to stay here for any length of time.The check-in process was very slow... only one person working the desk and they were dealing with a family who wanted to move to a new room. This took a WHILE to accomplish. And while the location was convenient to the soccer fields, this hotel can be very tricky to find. It's tucked behind another hotel. If you miss the small sign, you could easily drive right past the location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r348559222-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348559222</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Valentine's Retreat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family and I really enjoyed our stay in the two bedroom suite. It was very spacious and we really loved the kitchen.The staff was great and we really appreciate all the hard work and effort the manager Crystal put in to make our stay memorable with fulfilling our special requests on such short notice.We will definitely be returning. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r347333912-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -534,9 +789,6 @@
     <t>Stayed here for three nights during a business trip. First night was awakened to the refrigerator fan making a terrible noise.  I tried adjusting it and finally at 2am called the front desk.  Said they would have someone look in the morning. I checked in at the desk at 6am to make sure they would.  I packed my things in case I needed to be moved.  When I returned in the afternoon I checked the desk and they hadn't gotten to it yet.  Tried to go to my room and housekeeping was just getting to my room.  After an hour or so I went back to the room and the refrigerator was still making noises.  I called again and was told they would check on moving me.  An hour later they came to my room with a new key for a room down the hall. When I mentioned it, they said they were in the process of replacing that refrig.  Why would you book that room, knowing it's a problem??  Staff seemed irritated when our small work group was in the breakfast area in the morning. We met outside the next day and we're told we had to move as we were disturbing the other guests.  Wait, we are guests and we were waiting for our group to arrive so we could leave for the day. 12 total.   Wouldn't tday again MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded February 15, 2016</t>
   </si>
   <si>
@@ -592,6 +844,48 @@
   </si>
   <si>
     <t>Im shocked at the amount of great reviews, as I have been to quite a few Marriots over the last few years and have grew accustomed to a certain standard. The rooms aren't terrible by any means, but it is not what I expected. The suite is small and the condition of the room is st at ting to look warn. The pullout mattress needs replacement. The room service upon arrival wasnt great as the sheets weren't  folded so I wasnt sure if they were clean or not and the bathroom had strands of hair throughout.The breakfast experience wasnt great either as the space was not large enough to accommodate the amount of guest that were present, and the meal didnt provid a lot of variety. We couldnt even enjoy the cable as the signal wasnt clear. The price was cheap so for the value it was  good, but for Marriott it missed the mark.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r332050594-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332050594</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Great Value for Lots of Space</t>
+  </si>
+  <si>
+    <t>We stay at this property about once a month when we travel to Houston.  We use Marriott points:  at 7,500 per night, it costs less than any other type of property, but has great features.  Every room is a suite with a full kitchen including a stove.  Free breakfast is included.  The staff is cheerful and helpful and the property is clean.  We usually get a one bedroom, unless only efficiencies are available, but fairly often are upgraded to a 2 bedroom unit.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r315004456-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>315004456</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>poor condition of room</t>
+  </si>
+  <si>
+    <t>My room, especially bathroom was in poor condition.  The floor tile was loose and the grout cracking.  The paint above shower was peeling a bit and the shower seemed worn.  Also the tile in the elevator was loose and cracked.  In need of some maintenance.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded October 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2015</t>
+  </si>
+  <si>
+    <t>My room, especially bathroom was in poor condition.  The floor tile was loose and the grout cracking.  The paint above shower was peeling a bit and the shower seemed worn.  Also the tile in the elevator was loose and cracked.  In need of some maintenance.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r292304033-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
@@ -653,6 +947,48 @@
     <t>Another review that couldn't wait until I got home. While in town (Houston) on business we (when I say we I mean husband  &amp; I) stayed at TownePlace Suites which is a Marriott branch. Since it was our first time staying at TownePlace Suites we weren't sure what to expect but Marriott didn't disappoint. The front desk associate "Will" was friendly and fast checking us in our room. When we walked in our suite I was shocked at how spacious and modern the room was. We had a kitchen w/a OVEN.....YES A OVEN people. And Im not talking about a stove top (even though it had 4 spots on top). Amazing!!Swivel flat screen tv and a nice work station w/tons of outlets.  I mean they had so many outlets I think it was one on the front door. LolWe originally planned on staying one night but w/all those outlets we had to stay another night. The ac was good and cold. Breakfast was a step above continental not just bagels and juice but cold and hot cereal as well as waffles and yogurt. I'm definitely a happy camper with TownePlace Suites and can't wait to come back. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r278505467-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278505467</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>WORST!!!</t>
+  </si>
+  <si>
+    <t>My parents stay for more than a week and several times they didn't clean the room!!! The said that is not their duty to clean it every day ....!!! ????? I couldn't even believe that answer to our complain!! Worst!!! Is not suitable for seniors...my parents didn't like the service at breakfast and this unpleasant detail about the cleaning!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>My parents stay for more than a week and several times they didn't clean the room!!! The said that is not their duty to clean it every day ....!!! ????? I couldn't even believe that answer to our complain!! Worst!!! Is not suitable for seniors...my parents didn't like the service at breakfast and this unpleasant detail about the cleaning!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r273815119-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273815119</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel twice in the past month and will stay here again.  This hotel has really comfortable and spacious rooms.  The location works great too.  They have a nicely appointed breakfast area.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r271225757-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -668,9 +1004,6 @@
     <t>I stayed at TownePlace Suites I10/Energy corridor for a month, beginning March 12, 2015.  I had major surgery at a Houston hospital and chose to rehab here.  A few days before surgery, I visited this hotel and spoke with the General Manager, Leo.  He was very friendly and  accommodating.  I had reserved a studio suite for the month, but when he understood the surgery I was having and my special needs, he upgraded my room to a one bedroom suite and assigned me a room he thought would be perfect for me.  (He knew I would be on my own most of the time, am older, and would be using a walker).  He made sure to add a "club chair" to the room to make it easier for me to get up and down.  As it turned out, the whole experience was perfect.  All the desk staff were so friendly and treated me like family, offering to help with anything they could.  The room faced a park/hiking trails, which helped me mentally.  The housekeeping staff were very good and respected my request that they come to my room after noon.  They made a note so that any new staff would know.  I had a couple small issues with the room and the maintenance staff took care of it immediately.  When an outside company was involved in rectifying the issue, I was called by front desk staff to approve the time...I stayed at TownePlace Suites I10/Energy corridor for a month, beginning March 12, 2015.  I had major surgery at a Houston hospital and chose to rehab here.  A few days before surgery, I visited this hotel and spoke with the General Manager, Leo.  He was very friendly and  accommodating.  I had reserved a studio suite for the month, but when he understood the surgery I was having and my special needs, he upgraded my room to a one bedroom suite and assigned me a room he thought would be perfect for me.  (He knew I would be on my own most of the time, am older, and would be using a walker).  He made sure to add a "club chair" to the room to make it easier for me to get up and down.  As it turned out, the whole experience was perfect.  All the desk staff were so friendly and treated me like family, offering to help with anything they could.  The room faced a park/hiking trails, which helped me mentally.  The housekeeping staff were very good and respected my request that they come to my room after noon.  They made a note so that any new staff would know.  I had a couple small issues with the room and the maintenance staff took care of it immediately.  When an outside company was involved in rectifying the issue, I was called by front desk staff to approve the time for them to come.  I felt completely safe (I am female) during my stay.  I have nothing but positive comments for the entire staff and my room, in particular.  Thank you so much, Leo and staff.  Well done!MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>I stayed at TownePlace Suites I10/Energy corridor for a month, beginning March 12, 2015.  I had major surgery at a Houston hospital and chose to rehab here.  A few days before surgery, I visited this hotel and spoke with the General Manager, Leo.  He was very friendly and  accommodating.  I had reserved a studio suite for the month, but when he understood the surgery I was having and my special needs, he upgraded my room to a one bedroom suite and assigned me a room he thought would be perfect for me.  (He knew I would be on my own most of the time, am older, and would be using a walker).  He made sure to add a "club chair" to the room to make it easier for me to get up and down.  As it turned out, the whole experience was perfect.  All the desk staff were so friendly and treated me like family, offering to help with anything they could.  The room faced a park/hiking trails, which helped me mentally.  The housekeeping staff were very good and respected my request that they come to my room after noon.  They made a note so that any new staff would know.  I had a couple small issues with the room and the maintenance staff took care of it immediately.  When an outside company was involved in rectifying the issue, I was called by front desk staff to approve the time...I stayed at TownePlace Suites I10/Energy corridor for a month, beginning March 12, 2015.  I had major surgery at a Houston hospital and chose to rehab here.  A few days before surgery, I visited this hotel and spoke with the General Manager, Leo.  He was very friendly and  accommodating.  I had reserved a studio suite for the month, but when he understood the surgery I was having and my special needs, he upgraded my room to a one bedroom suite and assigned me a room he thought would be perfect for me.  (He knew I would be on my own most of the time, am older, and would be using a walker).  He made sure to add a "club chair" to the room to make it easier for me to get up and down.  As it turned out, the whole experience was perfect.  All the desk staff were so friendly and treated me like family, offering to help with anything they could.  The room faced a park/hiking trails, which helped me mentally.  The housekeeping staff were very good and respected my request that they come to my room after noon.  They made a note so that any new staff would know.  I had a couple small issues with the room and the maintenance staff took care of it immediately.  When an outside company was involved in rectifying the issue, I was called by front desk staff to approve the time for them to come.  I felt completely safe (I am female) during my stay.  I have nothing but positive comments for the entire staff and my room, in particular.  Thank you so much, Leo and staff.  Well done!More</t>
   </si>
   <si>
@@ -713,6 +1046,48 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r252778758-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252778758</t>
+  </si>
+  <si>
+    <t>02/05/2015</t>
+  </si>
+  <si>
+    <t>Great for a quick business trip</t>
+  </si>
+  <si>
+    <t>Very basic clean hotel, morning breakfast was basic but enough for you to feel like you ate something.  I've stayed at several Townplace suites before and this one was the smallest of all I've been to. The hallway carpet could use an update but other than that my only gripe was the drain in the bathtub, I'd be to my ankles in water before I could even wet my entire head. It was slow to drain which made showering feel like you were standing in a pool of water (which I was) but for 3 nights I was able to deal with it. Everything else was fine.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r251243949-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251243949</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Disturbing "professionalism"</t>
+  </si>
+  <si>
+    <t>The building itself is old. The interior is limited considering it's meant to be for extended stay. Breakfast area too small to even squeeze in all guests. My room was decent a light went out, and my dishwasher was leaky. Now I say disturbing because this stay would have been wonderful if I had not caught a gentleman yelling at one of the staff. There was an older lady at the desk and she walked to the office by the ice machine and whatever the issue was, the gentleman raised his voice and was obviously frustrated and impatient with this employee. I found this obviously tacky and very low class. This little spectacle made the entire stay seem gross. The gentleman, I later found out was the General Manager!!! The staff, if they have to work with such a person, they are doing a hell of a job!!! I would certainly hope that someone takes a look into the "leadership" at the towneplace!  Thank you! MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2015</t>
+  </si>
+  <si>
+    <t>The building itself is old. The interior is limited considering it's meant to be for extended stay. Breakfast area too small to even squeeze in all guests. My room was decent a light went out, and my dishwasher was leaky. Now I say disturbing because this stay would have been wonderful if I had not caught a gentleman yelling at one of the staff. There was an older lady at the desk and she walked to the office by the ice machine and whatever the issue was, the gentleman raised his voice and was obviously frustrated and impatient with this employee. I found this obviously tacky and very low class. This little spectacle made the entire stay seem gross. The gentleman, I later found out was the General Manager!!! The staff, if they have to work with such a person, they are doing a hell of a job!!! I would certainly hope that someone takes a look into the "leadership" at the towneplace!  Thank you! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r250402035-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -726,9 +1101,6 @@
   </si>
   <si>
     <t>I stayed at this location as I have customers in the Energy Corridor as well as downtown and I was unable to find anything in the middle (/Galleria area) when coordinating a late booking. My arrival was after hours, yet I was greeted by Jermaine with a friendly welcome even though he had just finished dealing with a customer who was upset due to internet outages (not his fault). The breakfast was a good enough selection though the eggs were powdered and the bacon pretty pepper-y, they offered apples, bananas, and oranges throughout the day and hard boiled eggs (cold) which was a great feature besides the cereals and waffles. No issues with noise or cleanliness but one suggestion would be to turn on the A/C in the rooms where you are expecting guests as it was over 80 when I walked in and took awhile to cool. Beware of bottoming out on your rental car when driving over their speed bumps unless you take them at approximately 2 mph. One add'l note, if you are heading downtown in the morning it can be hell getting out of their street onto I-10/Katy Fwy so plan accordingly. I picked this location for work and the Marriott name for the points and would stay here again for business. A solid 3.5 stars which is a decent rating for TownePlace Suites.MoreShow less</t>
-  </si>
-  <si>
-    <t>January 2015</t>
   </si>
   <si>
     <t>I stayed at this location as I have customers in the Energy Corridor as well as downtown and I was unable to find anything in the middle (/Galleria area) when coordinating a late booking. My arrival was after hours, yet I was greeted by Jermaine with a friendly welcome even though he had just finished dealing with a customer who was upset due to internet outages (not his fault). The breakfast was a good enough selection though the eggs were powdered and the bacon pretty pepper-y, they offered apples, bananas, and oranges throughout the day and hard boiled eggs (cold) which was a great feature besides the cereals and waffles. No issues with noise or cleanliness but one suggestion would be to turn on the A/C in the rooms where you are expecting guests as it was over 80 when I walked in and took awhile to cool. Beware of bottoming out on your rental car when driving over their speed bumps unless you take them at approximately 2 mph. One add'l note, if you are heading downtown in the morning it can be hell getting out of their street onto I-10/Katy Fwy so plan accordingly. I picked this location for work and the Marriott name for the points and would stay here again for business. A solid 3.5 stars which is a decent rating for TownePlace Suites.More</t>
@@ -782,6 +1154,45 @@
 Marriott gets it &amp; this property &amp; the staff members are to be applauded for...What a perfect stay!!!!! Ok where do I start???? Humph... Alright... For a quick, unexpected trip, I selected this hotel for the brand name, location &amp; the availability of pet stay. Leo, Jermaine, Brittny (spoke with her over the phone) &amp; Tiffany were FANTASTIC at accommodating my last minute needs.  From start to finish, I felt value during my stay.  Not being a novice to the Marriott brand, this treatment was expected &amp; exemplified during my entire stay.  Kudos!!!!!  Next, I advised the front desk of my slightly earlier than the official check in time &amp; they most graciously accommodated me.  Jermaine was friendly &amp; courteous to me even during the wee hours of the morning; how refreshing was this... Being able to check in early was fantastic, because although it's only a 5 hour drive from NOLA, it was refreshing not to have to wait around for my room.  This was a stellar move on the part of the staff members.  And then breakfast in the morning was also a WIN-WIN!!!! Hello... free and "i didn't have to cook it food..." yessssssss I LOVE IT!!!!!! Located immediately off I-10 near the Katy-Memorial City Area, this hotel was perfect for my needs.  Only thing that could've been better was... THE WEATHER.  But since ONLY GOD can control that, I was SUPER satisfied with my visit.Marriott gets it &amp; this property &amp; the staff members are to be applauded for embodying the true meaning of CUSTOMER SERVICE &amp; GETTING IT RIGHT!!!!Thanks Leo for the accommodations!!!! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r246998088-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246998088</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Awesome stay and friendly +10 team</t>
+  </si>
+  <si>
+    <t>You will not regret staying here. It starts with a warm welcome to an awesome hello and breakfast to start the day. I stay at this location whenver in Houston and they treat everyone like family. it is very quite and safe and I feel very at ease when i have my family with me. They even have a realtionship with the Fairfield next door to use their pool during the "polar bear months". The in room kitchenette is handy for extended stay meal cooking and refrigerated staorage, The hotel is beyond clean and well maintained, I recommend this location to anyone needing and overnight or an extnded stay. Cest Bon !MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>You will not regret staying here. It starts with a warm welcome to an awesome hello and breakfast to start the day. I stay at this location whenver in Houston and they treat everyone like family. it is very quite and safe and I feel very at ease when i have my family with me. They even have a realtionship with the Fairfield next door to use their pool during the "polar bear months". The in room kitchenette is handy for extended stay meal cooking and refrigerated staorage, The hotel is beyond clean and well maintained, I recommend this location to anyone needing and overnight or an extnded stay. Cest Bon !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r246752318-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246752318</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>Great for extended stay</t>
+  </si>
+  <si>
+    <t>I was in town for an extended business trip and was extremely happy with my stay at TownPlace Suites. There was a comment in another review that the appearance was disheveled, which is not the case. The exterior was well kept and looked like an upper class residential property. I found it charming and comfortable.I stayed in a studio suite, which had a modest kitchen (better than some in NY) and a Queen size bed. The bed was comfy and the kitchen was a Godsend, as eating out while travelling gets old, fast.The staff were exceptional. I was very happy with my Housekeeping team. They went out of their way to make my stay comfortable, which was appreciated, considering I was away during the holiday season. Little kind gestures of Christmas cards and candy canes were touching.For business travel, this property is fantastic. It would also suit families travelling with children.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in town for an extended business trip and was extremely happy with my stay at TownPlace Suites. There was a comment in another review that the appearance was disheveled, which is not the case. The exterior was well kept and looked like an upper class residential property. I found it charming and comfortable.I stayed in a studio suite, which had a modest kitchen (better than some in NY) and a Queen size bed. The bed was comfy and the kitchen was a Godsend, as eating out while travelling gets old, fast.The staff were exceptional. I was very happy with my Housekeeping team. They went out of their way to make my stay comfortable, which was appreciated, considering I was away during the holiday season. Little kind gestures of Christmas cards and candy canes were touching.For business travel, this property is fantastic. It would also suit families travelling with children.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r244449372-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -815,9 +1226,6 @@
     <t>Clean, spacious place. I booked a two rooms suite and it work very well for us, I was there my wife my two daughters. It was a lot better than staying in two separate rooms. Breakfast is included although it its very basic, but it is convenient.</t>
   </si>
   <si>
-    <t>December 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r235534530-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -845,6 +1253,51 @@
     <t>I have to admit, when I pulled up I thought it was a silly mix up! The place looks like apartments or duplexes, but it was, in fact, the TownPlace Suites. They look a little rough on the outside, but the inside was pleasant. The bed in the bedroom was comfy, however, I was a little weary about letting the kids sit on the floor just because the outside of the building seemed dingy and the floors looked a little heavily traveled. Overall, I don't think it was worth the price because it wasn't up to Marriott standards that I am accustomed to. The kitchen was apparently under construction so we were told to visit room 105 to eat breakfast and that we could dine in room 104 if we decided to eat in the main building... this seemed sketchy to me, so we passed on breakfast. Had I known we were going to be in separate quarters than the main building we would have passed as well. The booking rep assured me it was the only hotel available even though there was a Fairfield inn in the same parking lot!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r224539340-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224539340</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Smaller than other TownePlace properties I've been to</t>
+  </si>
+  <si>
+    <t>Tiny pool that is a cordoned-off area of the parking lot. Exercise room is the size of a large walk-in closet. Room was clean but small compared to other TownePlace properties - the sleeper-sofa is on the opposite wall as the queen bed, so when extended, there would be very little separation between the beds. Closest eateries are about 1/2 mile away across a busy, divided highway. Internet was a bit clunky to log on to, but I eventually got connected. Note to business travelers: this seems to attract a lot of families. Front desk folks were very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Tiny pool that is a cordoned-off area of the parking lot. Exercise room is the size of a large walk-in closet. Room was clean but small compared to other TownePlace properties - the sleeper-sofa is on the opposite wall as the queen bed, so when extended, there would be very little separation between the beds. Closest eateries are about 1/2 mile away across a busy, divided highway. Internet was a bit clunky to log on to, but I eventually got connected. Note to business travelers: this seems to attract a lot of families. Front desk folks were very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r207956608-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207956608</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before leaving on a cruise to Galveston. The staff was absolutely wonderful and they went that extra mile to make sure our stay was comfortable. It ranged to the front desk, housekeeping, and the cook for breakfast. I highly recommend this place especially for families, the breakfast was good...I was excepting less, but was surprised of the quality.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r205662871-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -860,9 +1313,6 @@
     <t>We stayed here with another couple for one night over the weekend.  When we checked in the staff greeted us and made us feel like they were happy that we were there.  We had reserved a suite with 2 bedrooms and asked for a quiet part of the hotel.  Our room was away from traffic and very quiet.The room was large enough for 4 people and the furniture comfortable.  If we would have been staying a longer time, it was equipped adequately for cooking and dining in.  The housekeeping staff did a good job as the room was very clean and tidy.In the morning we went down to breakfast and were pleasantly surprised at the selection of food.Not only were there the usual waffles, but also scrambled eggs, bacon, biscuits and gravy, cereal,oatmeal,yogurt,muffins, bagels and the usual juices. The lady working in the breakfast area was very nice and made sure everything was stocked.This is a place we would stay again if we were in the area.MoreShow less</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>We stayed here with another couple for one night over the weekend.  When we checked in the staff greeted us and made us feel like they were happy that we were there.  We had reserved a suite with 2 bedrooms and asked for a quiet part of the hotel.  Our room was away from traffic and very quiet.The room was large enough for 4 people and the furniture comfortable.  If we would have been staying a longer time, it was equipped adequately for cooking and dining in.  The housekeeping staff did a good job as the room was very clean and tidy.In the morning we went down to breakfast and were pleasantly surprised at the selection of food.Not only were there the usual waffles, but also scrambled eggs, bacon, biscuits and gravy, cereal,oatmeal,yogurt,muffins, bagels and the usual juices. The lady working in the breakfast area was very nice and made sure everything was stocked.This is a place we would stay again if we were in the area.More</t>
   </si>
   <si>
@@ -906,6 +1356,54 @@
   </si>
   <si>
     <t>If you're coming from I-10, this place is behind the Fairfield Inn and Suites. It took me a minute to realize Towneplace was behind it. Walked in and staff was very welcoming and accommodating. Ryan at the front desk is extremely helpful.The room was larger than I expected it to be, and was nice and clean. Had a good stay there. The only real downside was the next morning. My room was on the first floor and that morning there was landscaping/lawn mowing being done, so that was quite annoying to wake up to. Other than that everything else was great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r199543708-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199543708</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>clean, quiet, great location</t>
+  </si>
+  <si>
+    <t>I loveeed my stay here. I'm a clean freak so I immediately checked bed sheets, pillows, shower, and towels. Everything was clean. I stayed at motel 6 night before on katy fwy because everything was booked, I was upset towels had hair and shower dirty. I was overjoyed when I got to towneplace next day. Bed was comfortable and I loved the kitchen area. Very spacious for a 1 bed. Nice staff. Close to freeway, westheimer, and highway 6. I booked my stay on hotels.com and the room I had was more updated than the pics depict. Bed was updated and stylish (nothing like pics on hotels.com), furniture as well. Loved this hotel and will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I loveeed my stay here. I'm a clean freak so I immediately checked bed sheets, pillows, shower, and towels. Everything was clean. I stayed at motel 6 night before on katy fwy because everything was booked, I was upset towels had hair and shower dirty. I was overjoyed when I got to towneplace next day. Bed was comfortable and I loved the kitchen area. Very spacious for a 1 bed. Nice staff. Close to freeway, westheimer, and highway 6. I booked my stay on hotels.com and the room I had was more updated than the pics depict. Bed was updated and stylish (nothing like pics on hotels.com), furniture as well. Loved this hotel and will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r189980396-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189980396</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>OK, but misses on some things</t>
+  </si>
+  <si>
+    <t>The room was spacious and clean.  I did not request but received a handicapped accessible room which I'm sure altered the room's layout because the bed was almost in the kitchen.  Not what I would have chosen, but only there for three nights.  What was not acceptable and what will keep me from staying there again is that the internet was down in the building that I was in and I found out had been down for FOUR DAYS.  That is completely unacceptable in an age where everyone uses the internet for something.  The workout room contained only one beat up treadmill and elliptical that had an incorporated televisions that didn't work, but did block the view of the larger TV in the room.  This hotel, while clean and quiet, did not meet my needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded January 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2014</t>
+  </si>
+  <si>
+    <t>The room was spacious and clean.  I did not request but received a handicapped accessible room which I'm sure altered the room's layout because the bed was almost in the kitchen.  Not what I would have chosen, but only there for three nights.  What was not acceptable and what will keep me from staying there again is that the internet was down in the building that I was in and I found out had been down for FOUR DAYS.  That is completely unacceptable in an age where everyone uses the internet for something.  The workout room contained only one beat up treadmill and elliptical that had an incorporated televisions that didn't work, but did block the view of the larger TV in the room.  This hotel, while clean and quiet, did not meet my needs.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r187328045-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
@@ -977,13 +1475,49 @@
 All in all this was a nice place,...While this wasn't really my cup of tea, I still gave it a good rateing because it was exactly what they claim it is. I was here on business and just needed a nice clean place to sleep in the energy corridor area and was not overly concerned with much else so I used the "name your own price" feature on priceline which leaves you in the dark as to the name  and type of the property until your price is accepted and there is no turning back afterward. Great deals can be had this way but it occationaly has it's drawbacks.I was concerned when I found out it was an extended stay type property as I generally steer clear of those due to previous bad experiences.The staff was extreamly friendly and helpful and the suite was clean and tidy. The only drawback for me was that all the common area's were extreamly loud and crowded with LOTS of kids running around doing what kids do. They had a very small pool on site that I would have used only it was constantly full of kids splashing each other doing cannonballs etc. Nothing at all wrong with that just not very relaxing for a single adult traveler. They also had a tiny gym on site but the story was the same there as well, full of kids at all hours.All in all this was a nice place, and obviously a great value for families traveling with children. I got a great price deal as well so I'm not complaining, it just would not be somthing I would purpously choose again when traveling alone on business.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r173003227-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>173003227</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>She is friendly, kind and nice to the kids, and even adult she make sure that everyone is satisfy. At a point many children come for breakfast at the same time and she is just good to handle everyone. She is a good representative of this hotel,always smiling.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r171111492-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171111492</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>Fine hotel for what I needed</t>
+  </si>
+  <si>
+    <t>I stayed here on an overnight trip.  Location was good since I had a business meeting in the Energy Corridor. I was also pleasantly suprised by the size and cleanliness of the room. I usually stay in more full service hotels but this was definitely a good deal. I'd recommend it depending on your needs.  MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded August 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here on an overnight trip.  Location was good since I had a business meeting in the Energy Corridor. I was also pleasantly suprised by the size and cleanliness of the room. I usually stay in more full service hotels but this was definitely a good deal. I'd recommend it depending on your needs.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r171010637-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
     <t>171010637</t>
-  </si>
-  <si>
-    <t>08/06/2013</t>
   </si>
   <si>
     <t>If you want great breakfast and cleanest place stay here!!!</t>
@@ -1056,6 +1590,51 @@
 The only downsides to our stay were the broken security door, which...We stayed in a 2 bedroom suite while moving house, this was a good location and price for us, and more importantly, we could bring our cats (for a $75 fee). The suite had been newly renovated, and they are busy renovating the other building at this moment. Judging by some of the stuff I saw being pulled from the old rooms, the facelift was long overdue. Aside from the dishwasher coming away from the wall the first time we opened it, the kitchen is well stocked and was great for cooking small meals for the family to save on eating out. The bathroom, while tiny, was clean and had lots of storage. The bedrooms were a great size, and also had lots of storage, but the beds themselves were very soft and we slept terribly all week. Breakfast was an OK selection, my kids were disappointed that they only had biscuits one day, and not again. The pool was tiny, and you had to ask for pool towels at reception. We used the laundry facilities once, and I thought the dryer was on fire at one point seeing all the steam that was coming out of it. Location wise, this was great for our first few days in Houston, right off I10 and Highway 6. There are lots of stores and places to eat in the area. The only downsides to our stay were the broken security door, which was out of order all week, which meant we had to walk the long way round to our room,the room keys which kept having to be replaced because they stopped working, and the workman who just had to come and spend half an hour replacing a window in our room one afternoon, leaving a trail of dust and dirt after himself. We also had to leave the do not disturb sign on all week, because the one time I let the housekeeper in, she propped the door wide open while she worked, despite me telling her several times that we had cats in our room.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r163556930-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163556930</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>I frequently travel to Houston however this was my first time staying in this area and I was impressed.  The rooms were clean and spacious, the front desk staff was pleasant, and the location was great!  The 2 bedroom suite was perfect!MoreShow less</t>
+  </si>
+  <si>
+    <t>I frequently travel to Houston however this was my first time staying in this area and I was impressed.  The rooms were clean and spacious, the front desk staff was pleasant, and the location was great!  The 2 bedroom suite was perfect!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r162640019-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162640019</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel twice and have found the staff, especially Eboni, to be extremely friendly and helpful.  The property has been newly renovated and the rooms are clean and comfortable.  The only negative I found with the new room design is that it does not include a coffee table in the living area.  They should fix that.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded June 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2013</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel twice and have found the staff, especially Eboni, to be extremely friendly and helpful.  The property has been newly renovated and the rooms are clean and comfortable.  The only negative I found with the new room design is that it does not include a coffee table in the living area.  They should fix that.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r158251505-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1137,6 +1716,60 @@
     <t>This hotel won't blow you away with amenities, but for the price, it is excellent. Very comfortable and quiet. I stayed here on a few occasions for multiple weeks at a time will my wife and son while working in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r144618716-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144618716</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Good Long Haul Stay</t>
+  </si>
+  <si>
+    <t>I stayed at TownePlace Suites for a long stay.  I moved to Houston for a job and my house wouldn't be ready for 3 weeks.  Staff was nice and helpful.  The free breakfast helped as well.  The carpet seemed a little old, but they actually brought in steam cleaners while we were staying there.  Also the showers in the bathrooms could use some upgrades.  But like I said, good experience overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded November 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at TownePlace Suites for a long stay.  I moved to Houston for a job and my house wouldn't be ready for 3 weeks.  Staff was nice and helpful.  The free breakfast helped as well.  The carpet seemed a little old, but they actually brought in steam cleaners while we were staying there.  Also the showers in the bathrooms could use some upgrades.  But like I said, good experience overall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r137407720-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137407720</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>GREAT STAFF &amp; CUSTOMER SERVICE</t>
+  </si>
+  <si>
+    <t>Im a long time rewards member and I must say the staff here was the nicest I have come across and that says a lot because I have found Marriott and their staff very friendly and make my stays feel like a home away from home.  The hotel can be tricky to find because it sits behind another marriott hotel on the service road of I-10.  I was there for a week and the only problem I encountered was one day housekeeping didn't clean my room also I had told housekeeping there was an issue with the toilet in our room and when I returned from a long day it wasnt fixed.  When I complained the front desk staff was very prompt to resolve the issue, very nice and even when I left appologized once again for the issue! The staff bent over backwards to make my stay comfortable and thats why I always stay at Marriott hotels and will continue to. Two thumbs up!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded August 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2012</t>
+  </si>
+  <si>
+    <t>Im a long time rewards member and I must say the staff here was the nicest I have come across and that says a lot because I have found Marriott and their staff very friendly and make my stays feel like a home away from home.  The hotel can be tricky to find because it sits behind another marriott hotel on the service road of I-10.  I was there for a week and the only problem I encountered was one day housekeeping didn't clean my room also I had told housekeeping there was an issue with the toilet in our room and when I returned from a long day it wasnt fixed.  When I complained the front desk staff was very prompt to resolve the issue, very nice and even when I left appologized once again for the issue! The staff bent over backwards to make my stay comfortable and thats why I always stay at Marriott hotels and will continue to. Two thumbs up!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r136015300-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1152,9 +1785,6 @@
     <t>The hotel was clean and comfortable.  Two colleagues and i stayed in a 2-BR Suite.  It was well cared for and plenty spacious.  The internet was fast enough, and the breakfast was a step up from the traditional continental, nothing fancy but adequate.  Where this hotel really wins is with the staff.  We were only there for two nights and the staff used my name multiple times in greeting me.  The Assist. GM Justin was overly friendly and willing to do just about anything to make sure the guests were card for.  It was as though we were staying at a five star hotel.  Incredible service.  Way to go staff!MoreShow less</t>
   </si>
   <si>
-    <t>July 2012</t>
-  </si>
-  <si>
     <t>HoustonSales, Director of Sales at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded August 17, 2012</t>
   </si>
   <si>
@@ -1179,9 +1809,6 @@
     <t>The hotel is clean and the staff is more than accomodating to its guests! I had an extended stay for 9 weeks and Justin was friendly, efficient, and anticipated my needs. All of the staff were polite and courteous while I was walking the grounds, The hotel is between I-10 and a park/resevoir; which makes the area serene and comfortable; yet great acessibility. I cannot say enough of the staff and how well I was treated. I would highly recommend this hotel and would stay there again. :)MoreShow less</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
     <t>Management response:Responded July 9, 2012</t>
   </si>
   <si>
@@ -1215,6 +1842,51 @@
     <t>We booked our room over June 2nd- 3rd 2012....graduation weekend. My daughter celebrated her 5th grade promotion to Middle School @ Towneplace Suites by Marriot..and I must say that it was GREAT!!!!!! Justin @ the Front Desk went above and beyond for us! We bbq'd poolside as the girls splashed away!! When we called for extra pillows @ MIDNIGHT for our pillow fight..we were promptly served and with a SMILE!!  As a single mother with two children and 6 kids as guests for the party...the staff was friendly, SUPER HELPFUL, the room and property were clean,cute and quaint.  The  young lady that worked the breakfast shift on sunday was so patient and kind with us..the food was hot, the fruit was fresh and tthe coffee was DEEE---LIISHH!!THANK YOU ALL SO MUCH FOR A WONDERFUL STAY!!!!!!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r130361864-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130361864</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>clean rooms</t>
+  </si>
+  <si>
+    <t>I found that the rooms were very clean and the housekeepers very nice ,met the execuitve house keeper who helped us with our suit cases ,very sweet girl, thank you vicki for a wonderful stayMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I found that the rooms were very clean and the housekeepers very nice ,met the execuitve house keeper who helped us with our suit cases ,very sweet girl, thank you vicki for a wonderful stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r129624359-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129624359</t>
+  </si>
+  <si>
+    <t>05/08/2012</t>
+  </si>
+  <si>
+    <t>Won't stay again</t>
+  </si>
+  <si>
+    <t>The suite is ok for the price. We only stayed here one night. After check-in we went up to our room only to find that the room hadn't been cleaned after the previous guests had checked out. The person at the counter apologized and gave us a different room. The "suite" seemed a little small so I asked for an upgrade and I was told there were no other rooms available. At night we had to go down to ask for linen &amp; blankets for the sofabed even though they knew there were 3 guests in the room and only 1 queen bed. We had no problems using the wifi. The breakfast was the best thing about the place and they had a variety of items available. Upon taking a shower the next morning I found out that the drain was clogged. There was no point in reporting the problem as we were just about to check out by then &amp; I just wanted to get out of there by that time.MoreShow less</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at TownePlace Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded May 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2012</t>
+  </si>
+  <si>
+    <t>The suite is ok for the price. We only stayed here one night. After check-in we went up to our room only to find that the room hadn't been cleaned after the previous guests had checked out. The person at the counter apologized and gave us a different room. The "suite" seemed a little small so I asked for an upgrade and I was told there were no other rooms available. At night we had to go down to ask for linen &amp; blankets for the sofabed even though they knew there were 3 guests in the room and only 1 queen bed. We had no problems using the wifi. The breakfast was the best thing about the place and they had a variety of items available. Upon taking a shower the next morning I found out that the drain was clogged. There was no point in reporting the problem as we were just about to check out by then &amp; I just wanted to get out of there by that time.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r127527021-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1285,6 +1957,42 @@
   </si>
   <si>
     <t>I had the misfortune of visiting Houston during OTC week. While I would normally stay in the city, everything was full or prices were ridiculous so I stayed here.  While it made for a long drive into the center of Houston, I was happy enough with my decision.  I was not expecting the Ritz but was pleasantly surprised.  The rooms are nice enough, the reception I got on checking in was quite good.  The staff was always friendly and helpful. When I am staying someplace for multiple days, I like staying someplace that has a kitchen so I can cook my own food rather than eat out all the time.  The kitchen at this hotel was more than adequate.  Breakfast was a bit underwhelming compared to a Hampton Inn, so I only had the breakfast one day.  Simply not much variety.  Laundry room was good and free wifi is always a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r67254038-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>67254038</t>
+  </si>
+  <si>
+    <t>06/12/2010</t>
+  </si>
+  <si>
+    <t>Good place...good breakfast</t>
+  </si>
+  <si>
+    <t>This hotel is on the Katy Freeway and that is the USP. I would zip across to any place as the highway just next to the hotel and helped me avoid the traffic jams. The breakfast in the hotel was excellent.</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r10271573-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10271573</t>
+  </si>
+  <si>
+    <t>10/23/2007</t>
+  </si>
+  <si>
+    <t>Worst hotel possible</t>
+  </si>
+  <si>
+    <t>This is the worst hotel possible to stay in. My credit card was cgarged wrongly. The Director was unprofessional. Worst of all, the heater sparked off the smoke detector even at the lowest increase in temp, they wouldn't even change your rooms.Note, i've stayed at this hotel several times before, but i guess things aren't going well for this location any longer.To them, the customer isn't important. They're just about making their money.I would recommend a Motel 6 or 8 over this location.Angry Cust.</t>
+  </si>
+  <si>
+    <t>October 2007</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107954-r8141568-TownePlace_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
@@ -1873,7 +2581,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1881,18 +2589,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1936,7 +2638,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -1953,14 +2655,10 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1976,43 +2674,43 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
       </c>
       <c r="O4" t="s">
         <v>60</v>
       </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="n">
         <v>3</v>
       </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>4</v>
@@ -2020,14 +2718,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" t="s">
-        <v>71</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -2043,7 +2737,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2052,22 +2746,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
@@ -2082,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -2104,7 +2798,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2113,49 +2807,49 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -2171,7 +2865,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2180,49 +2874,39 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
         <v>60</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>88</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
         <v>89</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -2238,7 +2922,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2247,45 +2931,47 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -2301,7 +2987,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2310,49 +2996,43 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
         <v>60</v>
       </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -2368,52 +3048,58 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>113</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>118</v>
-      </c>
       <c r="O10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -2429,7 +3115,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2438,25 +3124,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2474,13 +3160,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -2496,7 +3182,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2505,39 +3191,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>137</v>
-      </c>
-      <c r="X12" t="s">
-        <v>138</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -2553,7 +3243,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2562,47 +3252,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -2618,7 +3304,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2627,35 +3313,37 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
-      <c r="R14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2663,7 +3351,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -2679,7 +3367,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2688,39 +3376,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>160</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>151</v>
+      </c>
+      <c r="X15" t="s">
+        <v>152</v>
+      </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -2736,7 +3434,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2745,25 +3443,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
         <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2774,10 +3472,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>160</v>
+      </c>
+      <c r="X16" t="s">
+        <v>161</v>
+      </c>
       <c r="Y16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -2793,52 +3495,56 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
         <v>167</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>168</v>
-      </c>
-      <c r="J17" t="s">
-        <v>169</v>
-      </c>
-      <c r="K17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L17" t="s">
-        <v>171</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="X17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -2854,48 +3560,58 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
         <v>176</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>177</v>
-      </c>
-      <c r="J18" t="s">
-        <v>178</v>
-      </c>
-      <c r="K18" t="s">
-        <v>179</v>
-      </c>
-      <c r="L18" t="s">
-        <v>180</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>181</v>
       </c>
       <c r="O18" t="s">
         <v>53</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>178</v>
+      </c>
+      <c r="X18" t="s">
+        <v>179</v>
+      </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -2911,52 +3627,58 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" t="s">
         <v>183</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>184</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>185</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
         <v>186</v>
       </c>
-      <c r="L19" t="s">
+      <c r="X19" t="s">
         <v>187</v>
       </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="Y19" t="s">
         <v>188</v>
-      </c>
-      <c r="O19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
-      <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
-        <v>189</v>
-      </c>
-      <c r="X19" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="20">
@@ -2972,54 +3694,48 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
         <v>192</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>193</v>
       </c>
-      <c r="J20" t="s">
-        <v>194</v>
-      </c>
-      <c r="K20" t="s">
-        <v>195</v>
-      </c>
-      <c r="L20" t="s">
-        <v>196</v>
-      </c>
       <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>197</v>
-      </c>
-      <c r="O20" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>194</v>
+      </c>
+      <c r="X20" t="s">
+        <v>195</v>
+      </c>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
@@ -3035,54 +3751,56 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
         <v>199</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>200</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>201</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
         <v>202</v>
       </c>
-      <c r="L21" t="s">
-        <v>203</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>197</v>
-      </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>203</v>
+      </c>
+      <c r="X21" t="s">
+        <v>204</v>
+      </c>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
@@ -3098,7 +3816,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3107,22 +3825,22 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
@@ -3136,10 +3854,14 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -3155,7 +3877,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3164,39 +3886,45 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
@@ -3212,7 +3940,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3221,29 +3949,27 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="O24" t="s">
-        <v>119</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
         <v>5</v>
       </c>
@@ -3251,7 +3977,7 @@
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3302,27 +4028,21 @@
         <v>230</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26">
@@ -3338,7 +4058,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3347,36 +4067,32 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
@@ -3420,27 +4136,37 @@
         <v>242</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>244</v>
+      </c>
+      <c r="X27" t="s">
+        <v>245</v>
+      </c>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
@@ -3456,34 +4182,34 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>248</v>
+      </c>
+      <c r="J28" t="s">
+        <v>249</v>
+      </c>
+      <c r="K28" t="s">
+        <v>250</v>
+      </c>
+      <c r="L28" t="s">
+        <v>251</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>243</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>244</v>
-      </c>
-      <c r="J28" t="s">
-        <v>245</v>
-      </c>
-      <c r="K28" t="s">
-        <v>246</v>
-      </c>
-      <c r="L28" t="s">
-        <v>247</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>236</v>
-      </c>
       <c r="O28" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3497,7 +4223,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
@@ -3513,7 +4239,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3522,45 +4248,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="O29" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>257</v>
+      </c>
+      <c r="X29" t="s">
+        <v>258</v>
+      </c>
       <c r="Y29" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
@@ -3576,7 +4300,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3585,43 +4309,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J30" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O30" t="s">
         <v>60</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31">
@@ -3637,7 +4357,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3646,47 +4366,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K31" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>3</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="X31" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Y31" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
@@ -3702,7 +4418,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3711,38 +4427,32 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
+        <v>278</v>
+      </c>
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
         <v>272</v>
       </c>
-      <c r="J32" t="s">
-        <v>273</v>
-      </c>
-      <c r="K32" t="s">
-        <v>274</v>
-      </c>
-      <c r="L32" t="s">
-        <v>275</v>
-      </c>
-      <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s">
-        <v>276</v>
-      </c>
       <c r="O32" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -3753,7 +4463,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33">
@@ -3769,7 +4479,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3778,25 +4488,25 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J33" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O33" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3808,13 +4518,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="X33" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Y33" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34">
@@ -3830,7 +4540,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3839,38 +4549,34 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="O34" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
         <v>5</v>
       </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -3881,7 +4587,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
@@ -3897,7 +4603,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3906,41 +4612,37 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J35" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" t="s">
+        <v>301</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
         <v>295</v>
       </c>
-      <c r="L35" t="s">
-        <v>296</v>
-      </c>
-      <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s">
-        <v>297</v>
-      </c>
       <c r="O35" t="s">
-        <v>119</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
         <v>4</v>
       </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3948,7 +4650,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36">
@@ -3964,7 +4666,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3973,49 +4675,39 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J36" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O36" t="s">
         <v>60</v>
       </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>4</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37">
@@ -4031,7 +4723,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4040,49 +4732,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J37" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
         <v>307</v>
       </c>
-      <c r="K37" t="s">
-        <v>308</v>
-      </c>
-      <c r="L37" t="s">
-        <v>309</v>
-      </c>
-      <c r="M37" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" t="s">
-        <v>304</v>
-      </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>4</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>314</v>
+      </c>
+      <c r="X37" t="s">
+        <v>315</v>
+      </c>
       <c r="Y37" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38">
@@ -4098,7 +4784,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4107,37 +4793,35 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="J38" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K38" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+      <c r="N38" t="s">
+        <v>322</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
-        <v>2</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4145,7 +4829,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39">
@@ -4161,7 +4845,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4170,53 +4854,39 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="J39" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="K39" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
         <v>322</v>
       </c>
       <c r="O39" t="s">
-        <v>160</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>1</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>323</v>
-      </c>
-      <c r="X39" t="s">
-        <v>324</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40">
@@ -4232,7 +4902,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4241,53 +4911,45 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J40" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K40" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L40" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>331</v>
-      </c>
-      <c r="X40" t="s">
-        <v>332</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41">
@@ -4303,7 +4965,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4312,53 +4974,45 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J41" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K41" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
         <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
         <v>340</v>
-      </c>
-      <c r="X41" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="42">
@@ -4374,62 +5028,54 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
         <v>343</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>344</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>345</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>346</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
         <v>347</v>
       </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>348</v>
-      </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>349</v>
-      </c>
-      <c r="X42" t="s">
-        <v>350</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43">
@@ -4445,34 +5091,34 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>349</v>
+      </c>
+      <c r="J43" t="s">
+        <v>350</v>
+      </c>
+      <c r="K43" t="s">
+        <v>351</v>
+      </c>
+      <c r="L43" t="s">
         <v>352</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
-        <v>353</v>
-      </c>
-      <c r="J43" t="s">
-        <v>354</v>
-      </c>
-      <c r="K43" t="s">
-        <v>355</v>
-      </c>
-      <c r="L43" t="s">
-        <v>356</v>
-      </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4484,13 +5130,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="X43" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Y43" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44">
@@ -4506,7 +5152,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4515,53 +5161,43 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="J44" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K44" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L44" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>367</v>
-      </c>
-      <c r="X44" t="s">
-        <v>368</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45">
@@ -4577,7 +5213,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4586,53 +5222,39 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="J45" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K45" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L45" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>376</v>
-      </c>
-      <c r="X45" t="s">
-        <v>377</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46">
@@ -4648,7 +5270,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4657,53 +5279,39 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="J46" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="K46" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>384</v>
-      </c>
-      <c r="X46" t="s">
-        <v>385</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47">
@@ -4719,7 +5327,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4728,22 +5336,22 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="J47" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="K47" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="L47" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="O47" t="s">
         <v>60</v>
@@ -4751,15 +5359,11 @@
       <c r="P47" t="n">
         <v>5</v>
       </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
         <v>4</v>
       </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -4767,14 +5371,10 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>392</v>
-      </c>
-      <c r="X47" t="s">
-        <v>393</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48">
@@ -4790,7 +5390,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4799,38 +5399,32 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="J48" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="K48" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="L48" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
         <v>5</v>
       </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -4838,14 +5432,10 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>401</v>
-      </c>
-      <c r="X48" t="s">
-        <v>402</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49">
@@ -4861,7 +5451,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4870,41 +5460,37 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="J49" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="K49" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="L49" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" t="n">
-        <v>4</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R49" t="n">
-        <v>3</v>
-      </c>
-      <c r="S49" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4912,7 +5498,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50">
@@ -4928,7 +5514,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4937,41 +5523,35 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="J50" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="K50" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="O50" t="s">
-        <v>119</v>
-      </c>
-      <c r="P50" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
       <c r="R50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4979,7 +5559,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51">
@@ -4995,7 +5575,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5004,43 +5584,47 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="J51" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K51" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="L51" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
-      </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="s"/>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>403</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>404</v>
+      </c>
+      <c r="X51" t="s">
+        <v>405</v>
+      </c>
       <c r="Y51" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52">
@@ -5056,7 +5640,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5065,35 +5649,2355 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="J52" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="K52" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
+      <c r="N52" t="s">
+        <v>412</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
       <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>413</v>
+      </c>
+      <c r="X52" t="s">
+        <v>414</v>
+      </c>
       <c r="Y52" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>416</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>417</v>
+      </c>
+      <c r="J53" t="s">
+        <v>418</v>
+      </c>
+      <c r="K53" t="s">
+        <v>419</v>
+      </c>
+      <c r="L53" t="s">
+        <v>420</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>421</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>422</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>423</v>
+      </c>
+      <c r="J54" t="s">
+        <v>424</v>
+      </c>
+      <c r="K54" t="s">
+        <v>425</v>
+      </c>
+      <c r="L54" t="s">
+        <v>426</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>421</v>
+      </c>
+      <c r="O54" t="s">
+        <v>372</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
         <v>428</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>429</v>
+      </c>
+      <c r="J55" t="s">
+        <v>430</v>
+      </c>
+      <c r="K55" t="s">
+        <v>431</v>
+      </c>
+      <c r="L55" t="s">
+        <v>432</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>433</v>
+      </c>
+      <c r="O55" t="s">
+        <v>231</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>434</v>
+      </c>
+      <c r="X55" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>437</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>438</v>
+      </c>
+      <c r="J56" t="s">
+        <v>439</v>
+      </c>
+      <c r="K56" t="s">
+        <v>440</v>
+      </c>
+      <c r="L56" t="s">
+        <v>441</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>421</v>
+      </c>
+      <c r="O56" t="s">
+        <v>134</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>442</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>443</v>
+      </c>
+      <c r="J57" t="s">
+        <v>444</v>
+      </c>
+      <c r="K57" t="s">
+        <v>445</v>
+      </c>
+      <c r="L57" t="s">
+        <v>446</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>447</v>
+      </c>
+      <c r="O57" t="s">
+        <v>134</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>449</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>450</v>
+      </c>
+      <c r="J58" t="s">
+        <v>451</v>
+      </c>
+      <c r="K58" t="s">
+        <v>452</v>
+      </c>
+      <c r="L58" t="s">
+        <v>453</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>454</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>455</v>
+      </c>
+      <c r="X58" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>458</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>459</v>
+      </c>
+      <c r="J59" t="s">
+        <v>460</v>
+      </c>
+      <c r="K59" t="s">
+        <v>461</v>
+      </c>
+      <c r="L59" t="s">
+        <v>462</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>463</v>
+      </c>
+      <c r="O59" t="s">
+        <v>134</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>465</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>466</v>
+      </c>
+      <c r="J60" t="s">
+        <v>467</v>
+      </c>
+      <c r="K60" t="s">
+        <v>468</v>
+      </c>
+      <c r="L60" t="s">
+        <v>469</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>470</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>471</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>472</v>
+      </c>
+      <c r="J61" t="s">
+        <v>473</v>
+      </c>
+      <c r="K61" t="s">
+        <v>474</v>
+      </c>
+      <c r="L61" t="s">
+        <v>475</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>470</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>477</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>478</v>
+      </c>
+      <c r="J62" t="s">
+        <v>479</v>
+      </c>
+      <c r="K62" t="s">
+        <v>480</v>
+      </c>
+      <c r="L62" t="s">
+        <v>481</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>470</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>482</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>483</v>
+      </c>
+      <c r="J63" t="s">
+        <v>484</v>
+      </c>
+      <c r="K63" t="s">
+        <v>485</v>
+      </c>
+      <c r="L63" t="s">
+        <v>486</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>487</v>
+      </c>
+      <c r="X63" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>490</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J64" t="s">
+        <v>484</v>
+      </c>
+      <c r="K64" t="s">
+        <v>492</v>
+      </c>
+      <c r="L64" t="s">
+        <v>493</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>495</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>496</v>
+      </c>
+      <c r="J65" t="s">
+        <v>497</v>
+      </c>
+      <c r="K65" t="s">
+        <v>498</v>
+      </c>
+      <c r="L65" t="s">
+        <v>499</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>500</v>
+      </c>
+      <c r="O65" t="s">
+        <v>231</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>501</v>
+      </c>
+      <c r="X65" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>504</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>505</v>
+      </c>
+      <c r="J66" t="s">
+        <v>506</v>
+      </c>
+      <c r="K66" t="s">
+        <v>507</v>
+      </c>
+      <c r="L66" t="s">
+        <v>508</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>500</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>509</v>
+      </c>
+      <c r="X66" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>512</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>513</v>
+      </c>
+      <c r="J67" t="s">
+        <v>514</v>
+      </c>
+      <c r="K67" t="s">
+        <v>515</v>
+      </c>
+      <c r="L67" t="s">
+        <v>516</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>500</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>509</v>
+      </c>
+      <c r="X67" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>518</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>519</v>
+      </c>
+      <c r="J68" t="s">
+        <v>520</v>
+      </c>
+      <c r="K68" t="s">
+        <v>521</v>
+      </c>
+      <c r="L68" t="s">
+        <v>522</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>523</v>
+      </c>
+      <c r="O68" t="s">
+        <v>134</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>524</v>
+      </c>
+      <c r="X68" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>527</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>528</v>
+      </c>
+      <c r="J69" t="s">
+        <v>529</v>
+      </c>
+      <c r="K69" t="s">
+        <v>530</v>
+      </c>
+      <c r="L69" t="s">
+        <v>531</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>532</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>533</v>
+      </c>
+      <c r="X69" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>536</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>537</v>
+      </c>
+      <c r="J70" t="s">
+        <v>538</v>
+      </c>
+      <c r="K70" t="s">
+        <v>539</v>
+      </c>
+      <c r="L70" t="s">
+        <v>540</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>541</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>542</v>
+      </c>
+      <c r="X70" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>545</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>546</v>
+      </c>
+      <c r="J71" t="s">
+        <v>547</v>
+      </c>
+      <c r="K71" t="s">
+        <v>548</v>
+      </c>
+      <c r="L71" t="s">
+        <v>549</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>550</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>551</v>
+      </c>
+      <c r="X71" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>554</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>555</v>
+      </c>
+      <c r="J72" t="s">
+        <v>556</v>
+      </c>
+      <c r="K72" t="s">
+        <v>557</v>
+      </c>
+      <c r="L72" t="s">
+        <v>558</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>559</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>560</v>
+      </c>
+      <c r="X72" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>563</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>564</v>
+      </c>
+      <c r="J73" t="s">
+        <v>565</v>
+      </c>
+      <c r="K73" t="s">
+        <v>566</v>
+      </c>
+      <c r="L73" t="s">
+        <v>567</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>568</v>
+      </c>
+      <c r="O73" t="s">
+        <v>231</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>569</v>
+      </c>
+      <c r="X73" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>572</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>573</v>
+      </c>
+      <c r="J74" t="s">
+        <v>574</v>
+      </c>
+      <c r="K74" t="s">
+        <v>575</v>
+      </c>
+      <c r="L74" t="s">
+        <v>576</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>568</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>577</v>
+      </c>
+      <c r="X74" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>580</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>581</v>
+      </c>
+      <c r="J75" t="s">
+        <v>582</v>
+      </c>
+      <c r="K75" t="s">
+        <v>583</v>
+      </c>
+      <c r="L75" t="s">
+        <v>584</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>559</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>585</v>
+      </c>
+      <c r="X75" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>588</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>589</v>
+      </c>
+      <c r="J76" t="s">
+        <v>590</v>
+      </c>
+      <c r="K76" t="s">
+        <v>591</v>
+      </c>
+      <c r="L76" t="s">
+        <v>592</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>559</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>593</v>
+      </c>
+      <c r="X76" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>596</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>597</v>
+      </c>
+      <c r="J77" t="s">
+        <v>598</v>
+      </c>
+      <c r="K77" t="s">
+        <v>599</v>
+      </c>
+      <c r="L77" t="s">
+        <v>600</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>601</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>593</v>
+      </c>
+      <c r="X77" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>603</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>604</v>
+      </c>
+      <c r="J78" t="s">
+        <v>605</v>
+      </c>
+      <c r="K78" t="s">
+        <v>606</v>
+      </c>
+      <c r="L78" t="s">
+        <v>607</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>601</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>608</v>
+      </c>
+      <c r="X78" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>611</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>612</v>
+      </c>
+      <c r="J79" t="s">
+        <v>613</v>
+      </c>
+      <c r="K79" t="s">
+        <v>614</v>
+      </c>
+      <c r="L79" t="s">
+        <v>615</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>550</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>616</v>
+      </c>
+      <c r="X79" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>619</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>620</v>
+      </c>
+      <c r="J80" t="s">
+        <v>621</v>
+      </c>
+      <c r="K80" t="s">
+        <v>622</v>
+      </c>
+      <c r="L80" t="s">
+        <v>623</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>624</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>625</v>
+      </c>
+      <c r="X80" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>628</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>629</v>
+      </c>
+      <c r="J81" t="s">
+        <v>630</v>
+      </c>
+      <c r="K81" t="s">
+        <v>631</v>
+      </c>
+      <c r="L81" t="s">
+        <v>632</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>633</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>635</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>636</v>
+      </c>
+      <c r="J82" t="s">
+        <v>637</v>
+      </c>
+      <c r="K82" t="s">
+        <v>638</v>
+      </c>
+      <c r="L82" t="s">
+        <v>639</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>640</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>641</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>642</v>
+      </c>
+      <c r="J83" t="s">
+        <v>643</v>
+      </c>
+      <c r="K83" t="s">
+        <v>644</v>
+      </c>
+      <c r="L83" t="s">
+        <v>645</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>646</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>647</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>648</v>
+      </c>
+      <c r="J84" t="s">
+        <v>649</v>
+      </c>
+      <c r="K84" t="s">
+        <v>650</v>
+      </c>
+      <c r="L84" t="s">
+        <v>651</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>652</v>
+      </c>
+      <c r="O84" t="s">
+        <v>134</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>654</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>655</v>
+      </c>
+      <c r="J85" t="s">
+        <v>656</v>
+      </c>
+      <c r="K85" t="s">
+        <v>657</v>
+      </c>
+      <c r="L85" t="s">
+        <v>658</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>35718</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>660</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>661</v>
+      </c>
+      <c r="J86" t="s">
+        <v>662</v>
+      </c>
+      <c r="K86" t="s">
+        <v>663</v>
+      </c>
+      <c r="L86" t="s">
+        <v>664</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>664</v>
       </c>
     </row>
   </sheetData>
